--- a/ArticleManage/main_working_folder/output_folders/Data 75 The role of H3PO4/Data75_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 75 The role of H3PO4/Data75_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="300stC" sheetId="1" r:id="rId1"/>
-    <sheet name="400stC" sheetId="2" r:id="rId4"/>
-    <sheet name="500stC" sheetId="3" r:id="rId5"/>
-    <sheet name="600stC" sheetId="4" r:id="rId6"/>
-    <sheet name="700stC" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 4_1 300stC  0-1-50-350 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4_1 400stC  0-1-50-350 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4_1 500stC  0-1-50-350 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4_1 600stC  0-1-50-350 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 4_1 700stC  0-1-50-350 " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -113,7 +113,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 300stC</a:t>
+              <a:t>Izoterma adsorpcji probki 300stC z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'300stC'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_1 300stC  0-1-50-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'300stC'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_1 300stC  0-1-50-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -190,6 +190,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -259,6 +261,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -423,7 +427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 400stC</a:t>
+              <a:t>Izoterma adsorpcji probki 400stC z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -482,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'400stC'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_1 400stC  0-1-50-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'400stC'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_1 400stC  0-1-50-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -500,6 +504,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -569,6 +575,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -733,7 +741,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 500stC</a:t>
+              <a:t>Izoterma adsorpcji probki 500stC z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'500stC'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_1 500stC  0-1-50-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'500stC'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_1 500stC  0-1-50-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -810,6 +818,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -879,6 +889,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1043,7 +1055,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 600stC</a:t>
+              <a:t>Izoterma adsorpcji probki 600stC z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1102,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'600stC'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_1 600stC  0-1-50-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'600stC'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_1 600stC  0-1-50-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1120,6 +1132,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1189,6 +1203,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1353,7 +1369,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 700stC</a:t>
+              <a:t>Izoterma adsorpcji probki 700stC z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1412,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'700stC'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_1 700stC  0-1-50-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'700stC'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_1 700stC  0-1-50-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1430,6 +1446,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1499,6 +1517,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 75 The role of H3PO4/Data75_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 75 The role of H3PO4/Data75_all_graphs_excel.xlsx
@@ -4927,7 +4927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4948,397 +4948,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0174</v>
       </c>
       <c r="B3" s="0">
-        <v>136.2866</v>
+        <v>137.7102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0326</v>
       </c>
       <c r="B4" s="0">
-        <v>146.5565</v>
+        <v>144.3079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0429</v>
       </c>
       <c r="B5" s="0">
-        <v>152.7895</v>
+        <v>147.4127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0477</v>
       </c>
       <c r="B6" s="0">
-        <v>157.0383</v>
+        <v>149.7413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="B7" s="0">
-        <v>160.0584</v>
+        <v>152.458</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.0675</v>
       </c>
       <c r="B8" s="0">
-        <v>162.409</v>
+        <v>154.3984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.22</v>
+        <v>0.0789</v>
       </c>
       <c r="B9" s="0">
-        <v>171.5043</v>
+        <v>156.3389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.24</v>
+        <v>0.0883</v>
       </c>
       <c r="B10" s="0">
-        <v>173.0159</v>
+        <v>157.8913</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.26</v>
+        <v>0.0987</v>
       </c>
       <c r="B11" s="0">
-        <v>174.0295</v>
+        <v>159.8318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.1517</v>
       </c>
       <c r="B12" s="0">
-        <v>175.5468</v>
+        <v>165.2652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3</v>
+        <v>0.2047</v>
       </c>
       <c r="B13" s="0">
-        <v>177.2527</v>
+        <v>170.3105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.32</v>
+        <v>0.2577</v>
       </c>
       <c r="B14" s="0">
-        <v>178.3595</v>
+        <v>174.1915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.34</v>
+        <v>0.4963</v>
       </c>
       <c r="B15" s="0">
-        <v>179.2761</v>
+        <v>185.8344</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.36</v>
+        <v>0.5446</v>
       </c>
       <c r="B16" s="0">
-        <v>180.0745</v>
+        <v>188.163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.38</v>
+        <v>0.5967</v>
       </c>
       <c r="B17" s="0">
-        <v>180.8717</v>
+        <v>190.1035</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4</v>
+        <v>0.6459</v>
       </c>
       <c r="B18" s="0">
-        <v>182.6545</v>
+        <v>190.8797</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.42</v>
+        <v>0.6961</v>
       </c>
       <c r="B19" s="0">
-        <v>184.2641</v>
+        <v>192.8202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.44</v>
+        <v>0.7462</v>
       </c>
       <c r="B20" s="0">
-        <v>184.1287</v>
+        <v>195.1488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.46</v>
+        <v>0.7964</v>
       </c>
       <c r="B21" s="0">
-        <v>185.1109</v>
+        <v>197.0893</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.48</v>
+        <v>0.8447</v>
       </c>
       <c r="B22" s="0">
-        <v>186.2223</v>
+        <v>199.4179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5</v>
+        <v>0.893</v>
       </c>
       <c r="B23" s="0">
-        <v>187.1119</v>
+        <v>201.3583</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.52</v>
+        <v>0.9081</v>
       </c>
       <c r="B24" s="0">
-        <v>186.8536</v>
+        <v>202.1345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.54</v>
+        <v>0.9195</v>
       </c>
       <c r="B25" s="0">
-        <v>187.8838</v>
+        <v>203.2988</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.56</v>
+        <v>0.929</v>
       </c>
       <c r="B26" s="0">
-        <v>188.6329</v>
+        <v>203.6869</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.58</v>
+        <v>0.9413</v>
       </c>
       <c r="B27" s="0">
-        <v>189.4786</v>
+        <v>204.8512</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6</v>
+        <v>0.9526</v>
       </c>
       <c r="B28" s="0">
-        <v>190.2258</v>
+        <v>206.0155</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.62</v>
+        <v>0.9678</v>
       </c>
       <c r="B29" s="0">
-        <v>190.6825</v>
+        <v>207.956</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.64</v>
+        <v>0.9782</v>
       </c>
       <c r="B30" s="0">
-        <v>191.7453</v>
+        <v>210.2846</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.66</v>
+        <v>0.9867</v>
       </c>
       <c r="B31" s="0">
-        <v>192.3394</v>
+        <v>212.6132</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.68</v>
+        <v>0.3041</v>
       </c>
       <c r="B32" s="0">
-        <v>193.0074</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B33" s="0">
-        <v>193.5023</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B34" s="0">
-        <v>194.3066</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B35" s="0">
-        <v>195.1091</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B36" s="0">
-        <v>195.2592</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B37" s="0">
-        <v>196.6306</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B38" s="0">
-        <v>197.7732</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B39" s="0">
-        <v>198.2988</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B40" s="0">
-        <v>199.2496</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B41" s="0">
-        <v>199.9834</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B42" s="0">
-        <v>201.1294</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B43" s="0">
-        <v>202.7416</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B44" s="0">
-        <v>203.948</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B45" s="0">
-        <v>206.0044</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B46" s="0">
-        <v>208.5697</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B47" s="0">
-        <v>211.5896</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.1896</v>
-      </c>
-      <c r="B48" s="0">
-        <v>168.37</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.1678</v>
-      </c>
-      <c r="B49" s="0">
-        <v>166.0414</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.1508</v>
-      </c>
-      <c r="B50" s="0">
-        <v>164.8771</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.2047</v>
-      </c>
-      <c r="B51" s="0">
-        <v>169.5343</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>176.9082</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5347,7 +5195,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5368,421 +5216,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9918</v>
       </c>
       <c r="B3" s="0">
-        <v>194.3345</v>
+        <v>301.8758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9776</v>
       </c>
       <c r="B4" s="0">
-        <v>210.1932</v>
+        <v>298.3829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9663</v>
       </c>
       <c r="B5" s="0">
-        <v>219.0753</v>
+        <v>296.0543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.9568</v>
       </c>
       <c r="B6" s="0">
-        <v>225.2751</v>
+        <v>294.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.9473</v>
       </c>
       <c r="B7" s="0">
-        <v>230.0432</v>
+        <v>293.7257</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.9369</v>
       </c>
       <c r="B8" s="0">
-        <v>233.8133</v>
+        <v>292.1734</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.9369</v>
       </c>
       <c r="B9" s="0">
-        <v>237.613</v>
+        <v>292.1734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.9256</v>
       </c>
       <c r="B10" s="0">
-        <v>240.9939</v>
+        <v>291.0091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.9161</v>
       </c>
       <c r="B11" s="0">
-        <v>244.1211</v>
+        <v>290.2329</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.9066</v>
       </c>
       <c r="B12" s="0">
-        <v>246.5941</v>
+        <v>289.4567</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.8934</v>
       </c>
       <c r="B13" s="0">
-        <v>248.1091</v>
+        <v>287.9043</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.8451</v>
       </c>
       <c r="B14" s="0">
-        <v>250.2827</v>
+        <v>285.1876</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.7949</v>
       </c>
       <c r="B15" s="0">
-        <v>252.0786</v>
+        <v>282.0828</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.7457</v>
       </c>
       <c r="B16" s="0">
-        <v>253.9852</v>
+        <v>280.1423</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.6955</v>
       </c>
       <c r="B17" s="0">
-        <v>255.9004</v>
+        <v>277.4256</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.6463</v>
       </c>
       <c r="B18" s="0">
-        <v>257.4834</v>
+        <v>275.097</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5952</v>
       </c>
       <c r="B19" s="0">
-        <v>258.8639</v>
+        <v>271.9922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.546</v>
       </c>
       <c r="B20" s="0">
-        <v>260.3339</v>
+        <v>269.6636</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.4958</v>
       </c>
       <c r="B21" s="0">
-        <v>261.8649</v>
+        <v>266.947</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.48</v>
+        <v>0.4447</v>
       </c>
       <c r="B22" s="0">
-        <v>266.5764</v>
+        <v>264.2303</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5</v>
+        <v>0.3964</v>
       </c>
       <c r="B23" s="0">
-        <v>267.6575</v>
+        <v>261.1255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.52</v>
+        <v>0.3519</v>
       </c>
       <c r="B24" s="0">
-        <v>268.6063</v>
+        <v>258.0207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.54</v>
+        <v>0.3093</v>
       </c>
       <c r="B25" s="0">
-        <v>269.7306</v>
+        <v>254.5278</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.56</v>
+        <v>0.2601</v>
       </c>
       <c r="B26" s="0">
-        <v>270.4808</v>
+        <v>251.423</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.58</v>
+        <v>0.2071</v>
       </c>
       <c r="B27" s="0">
-        <v>271.3768</v>
+        <v>245.6016</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6</v>
+        <v>0.1494</v>
       </c>
       <c r="B28" s="0">
-        <v>272.2704</v>
+        <v>237.8396</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.62</v>
+        <v>0.0993</v>
       </c>
       <c r="B29" s="0">
-        <v>273.2233</v>
+        <v>228.9133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.64</v>
+        <v>0.0889</v>
       </c>
       <c r="B30" s="0">
-        <v>274.542</v>
+        <v>226.1966</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.66</v>
+        <v>0.0785</v>
       </c>
       <c r="B31" s="0">
-        <v>275.947</v>
+        <v>223.0918</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.68</v>
+        <v>0.0662</v>
       </c>
       <c r="B32" s="0">
-        <v>276.8556</v>
+        <v>219.9871</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7</v>
+        <v>0.0558</v>
       </c>
       <c r="B33" s="0">
-        <v>277.7168</v>
+        <v>216.1061</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.72</v>
+        <v>0.0425</v>
       </c>
       <c r="B34" s="0">
-        <v>278.7342</v>
+        <v>210.6727</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.74</v>
+        <v>0.0265</v>
       </c>
       <c r="B35" s="0">
-        <v>279.8488</v>
+        <v>200.5821</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.76</v>
+        <v>0.0199</v>
       </c>
       <c r="B36" s="0">
-        <v>280.8963</v>
+        <v>193.2083</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.78</v>
+        <v>0.0105</v>
       </c>
       <c r="B37" s="0">
-        <v>281.9862</v>
+        <v>185.8344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8</v>
+        <v>0.0077</v>
       </c>
       <c r="B38" s="0">
-        <v>282.9948</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B39" s="0">
-        <v>284.0282</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B40" s="0">
-        <v>285.1977</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B41" s="0">
-        <v>286.414</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B42" s="0">
-        <v>287.834</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B43" s="0">
-        <v>289.4501</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B44" s="0">
-        <v>291.4639</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B45" s="0">
-        <v>293.7615</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B46" s="0">
-        <v>296.476</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.4589</v>
-      </c>
-      <c r="B47" s="0">
-        <v>264.2303</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.4286</v>
-      </c>
-      <c r="B48" s="0">
-        <v>263.4541</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.3973</v>
-      </c>
-      <c r="B49" s="0">
-        <v>261.9017</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9776</v>
-      </c>
-      <c r="B50" s="0">
-        <v>298.771</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9918</v>
-      </c>
-      <c r="B51" s="0">
-        <v>301.4877</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0312</v>
-      </c>
-      <c r="B52" s="0">
-        <v>205.2393</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0237</v>
-      </c>
-      <c r="B53" s="0">
-        <v>199.806</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0105</v>
-      </c>
-      <c r="B54" s="0">
-        <v>180.7891</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>174.5796</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5791,7 +5511,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5812,397 +5532,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9878</v>
       </c>
       <c r="B3" s="0">
-        <v>216.6599</v>
+        <v>337.5809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9783</v>
       </c>
       <c r="B4" s="0">
-        <v>233.3927</v>
+        <v>334.8642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9679</v>
       </c>
       <c r="B5" s="0">
-        <v>243.1664</v>
+        <v>332.5356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.9575</v>
       </c>
       <c r="B6" s="0">
-        <v>249.8532</v>
+        <v>330.5951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.949</v>
       </c>
       <c r="B7" s="0">
-        <v>255.3064</v>
+        <v>329.0427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.9395</v>
       </c>
       <c r="B8" s="0">
-        <v>260.2165</v>
+        <v>328.2665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.9291</v>
       </c>
       <c r="B9" s="0">
-        <v>264.2352</v>
+        <v>327.1022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.9206</v>
       </c>
       <c r="B10" s="0">
-        <v>267.7181</v>
+        <v>325.9379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.9083</v>
       </c>
       <c r="B11" s="0">
-        <v>270.7827</v>
+        <v>324.7736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.8951</v>
       </c>
       <c r="B12" s="0">
-        <v>274.2696</v>
+        <v>323.9974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.8458</v>
       </c>
       <c r="B13" s="0">
-        <v>277.6011</v>
+        <v>319.7283</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.7957</v>
       </c>
       <c r="B14" s="0">
-        <v>280.1423</v>
+        <v>316.2354</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.7464</v>
       </c>
       <c r="B15" s="0">
-        <v>282.1786</v>
+        <v>312.7426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.6953</v>
       </c>
       <c r="B16" s="0">
-        <v>284.2732</v>
+        <v>310.414</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.6461</v>
       </c>
       <c r="B17" s="0">
-        <v>286.4129</v>
+        <v>308.0854</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.5959</v>
       </c>
       <c r="B18" s="0">
-        <v>288.0529</v>
+        <v>305.3687</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5467</v>
       </c>
       <c r="B19" s="0">
-        <v>289.6575</v>
+        <v>302.2639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.4965</v>
       </c>
       <c r="B20" s="0">
-        <v>291.3065</v>
+        <v>299.9353</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.4464</v>
       </c>
       <c r="B21" s="0">
-        <v>292.8539</v>
+        <v>296.8305</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="B22" s="0">
-        <v>294.4284</v>
+        <v>293.7257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.3536</v>
       </c>
       <c r="B23" s="0">
-        <v>295.6782</v>
+        <v>290.2329</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.3129</v>
       </c>
       <c r="B24" s="0">
-        <v>297.3374</v>
+        <v>286.3519</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.2637</v>
       </c>
       <c r="B25" s="0">
-        <v>299.3836</v>
+        <v>281.6947</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.2069</v>
       </c>
       <c r="B26" s="0">
-        <v>299.8625</v>
+        <v>274.3208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.1492</v>
       </c>
       <c r="B27" s="0">
-        <v>299.8228</v>
+        <v>265.7827</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.1029</v>
       </c>
       <c r="B28" s="0">
-        <v>300.9942</v>
+        <v>255.6921</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.0877</v>
       </c>
       <c r="B29" s="0">
-        <v>302.0146</v>
+        <v>252.5873</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.0792</v>
       </c>
       <c r="B30" s="0">
-        <v>303.1399</v>
+        <v>250.2587</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.0707</v>
       </c>
       <c r="B31" s="0">
-        <v>304.5428</v>
+        <v>247.542</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.0632</v>
       </c>
       <c r="B32" s="0">
-        <v>305.3954</v>
+        <v>243.6611</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.0566</v>
       </c>
       <c r="B33" s="0">
-        <v>306.4806</v>
+        <v>240.1682</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.049</v>
       </c>
       <c r="B34" s="0">
-        <v>307.8099</v>
+        <v>236.6753</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.0443</v>
       </c>
       <c r="B35" s="0">
-        <v>308.8404</v>
+        <v>232.4062</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.0358</v>
       </c>
       <c r="B36" s="0">
-        <v>309.5632</v>
+        <v>228.9133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.0264</v>
       </c>
       <c r="B37" s="0">
-        <v>310.0054</v>
+        <v>222.3157</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.0189</v>
       </c>
       <c r="B38" s="0">
-        <v>311.3217</v>
+        <v>213.7775</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.0123</v>
       </c>
       <c r="B39" s="0">
-        <v>312.7267</v>
+        <v>205.6274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.0085</v>
       </c>
       <c r="B40" s="0">
-        <v>313.9401</v>
+        <v>201.3583</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.78</v>
+        <v>0.0067</v>
       </c>
       <c r="B41" s="0">
-        <v>315.4599</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>316.8632</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>318.2792</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>319.6663</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>321.2542</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>323.0803</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>324.5658</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>327.0752</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>329.793</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>332.3598</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>335.9923</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>193.2083</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6211,7 +5851,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6232,397 +5872,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9926</v>
       </c>
       <c r="B3" s="0">
-        <v>214.7898</v>
+        <v>322.8331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.985</v>
       </c>
       <c r="B4" s="0">
-        <v>230.1591</v>
+        <v>320.1164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9775</v>
       </c>
       <c r="B5" s="0">
-        <v>240.1524</v>
+        <v>318.1759</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.969</v>
       </c>
       <c r="B6" s="0">
-        <v>246.6938</v>
+        <v>316.2354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.9586</v>
       </c>
       <c r="B7" s="0">
-        <v>251.299</v>
+        <v>314.295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.9482</v>
       </c>
       <c r="B8" s="0">
-        <v>254.7753</v>
+        <v>313.1307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.9387</v>
       </c>
       <c r="B9" s="0">
-        <v>258.2993</v>
+        <v>311.9664</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.9273</v>
       </c>
       <c r="B10" s="0">
-        <v>261.4744</v>
+        <v>311.1902</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.9188</v>
       </c>
       <c r="B11" s="0">
-        <v>264.3613</v>
+        <v>310.414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.9093</v>
       </c>
       <c r="B12" s="0">
-        <v>266.9067</v>
+        <v>310.0259</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.897</v>
       </c>
       <c r="B13" s="0">
-        <v>268.9727</v>
+        <v>308.4735</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.8459</v>
       </c>
       <c r="B14" s="0">
-        <v>271.0155</v>
+        <v>305.3687</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.7948</v>
       </c>
       <c r="B15" s="0">
-        <v>272.8731</v>
+        <v>301.8758</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.7456</v>
       </c>
       <c r="B16" s="0">
-        <v>274.8355</v>
+        <v>299.5472</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.6973</v>
       </c>
       <c r="B17" s="0">
-        <v>276.6354</v>
+        <v>297.6067</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.6452</v>
       </c>
       <c r="B18" s="0">
-        <v>278.1698</v>
+        <v>294.89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.596</v>
       </c>
       <c r="B19" s="0">
-        <v>279.7191</v>
+        <v>292.5614</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5458</v>
       </c>
       <c r="B20" s="0">
-        <v>281.2031</v>
+        <v>290.621</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.4957</v>
       </c>
       <c r="B21" s="0">
-        <v>282.2345</v>
+        <v>287.9043</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.4957</v>
       </c>
       <c r="B22" s="0">
-        <v>283.0581</v>
+        <v>287.9043</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.4455</v>
       </c>
       <c r="B23" s="0">
-        <v>284.4531</v>
+        <v>285.1876</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.3982</v>
       </c>
       <c r="B24" s="0">
-        <v>285.8245</v>
+        <v>282.859</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.3489</v>
       </c>
       <c r="B25" s="0">
-        <v>286.5363</v>
+        <v>279.7542</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.3073</v>
       </c>
       <c r="B26" s="0">
-        <v>287.2989</v>
+        <v>276.6494</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.2609</v>
       </c>
       <c r="B27" s="0">
-        <v>288.4526</v>
+        <v>272.3803</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.2051</v>
       </c>
       <c r="B28" s="0">
-        <v>289.5204</v>
+        <v>266.947</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.1511</v>
       </c>
       <c r="B29" s="0">
-        <v>290.5278</v>
+        <v>259.9612</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.1019</v>
       </c>
       <c r="B30" s="0">
-        <v>291.5406</v>
+        <v>251.8111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.0897</v>
       </c>
       <c r="B31" s="0">
-        <v>292.4333</v>
+        <v>248.3182</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.0783</v>
       </c>
       <c r="B32" s="0">
-        <v>293.2242</v>
+        <v>245.6016</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.067</v>
       </c>
       <c r="B33" s="0">
-        <v>294.0267</v>
+        <v>242.8849</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.0585</v>
       </c>
       <c r="B34" s="0">
-        <v>294.9884</v>
+        <v>239.392</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.0519</v>
       </c>
       <c r="B35" s="0">
-        <v>295.9283</v>
+        <v>235.8991</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.0424</v>
       </c>
       <c r="B36" s="0">
-        <v>296.9987</v>
+        <v>232.4062</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.0358</v>
       </c>
       <c r="B37" s="0">
-        <v>298.0387</v>
+        <v>228.1371</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.0273</v>
       </c>
       <c r="B38" s="0">
-        <v>298.9859</v>
+        <v>223.4799</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.0198</v>
       </c>
       <c r="B39" s="0">
-        <v>299.8625</v>
+        <v>216.4942</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.0104</v>
       </c>
       <c r="B40" s="0">
-        <v>300.775</v>
+        <v>206.7917</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.78</v>
+        <v>0.0076</v>
       </c>
       <c r="B41" s="0">
-        <v>301.8976</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>302.9633</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>304.0403</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>305.2911</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>306.4749</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>307.8595</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>309.2911</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>310.715</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>312.9128</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>315.7616</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>320.0185</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>197.8655</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6631,7 +6191,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6652,397 +6212,285 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9905</v>
       </c>
       <c r="B3" s="0">
-        <v>142.7048</v>
+        <v>203.6869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9801</v>
       </c>
       <c r="B4" s="0">
-        <v>153.3697</v>
+        <v>202.1345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9706</v>
       </c>
       <c r="B5" s="0">
-        <v>158.7343</v>
+        <v>200.5821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.9593</v>
       </c>
       <c r="B6" s="0">
-        <v>162.0314</v>
+        <v>199.806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.9489</v>
       </c>
       <c r="B7" s="0">
-        <v>164.9698</v>
+        <v>198.6417</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.9394</v>
       </c>
       <c r="B8" s="0">
-        <v>166.9712</v>
+        <v>197.8655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.929</v>
       </c>
       <c r="B9" s="0">
-        <v>168.514</v>
+        <v>197.4774</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.9176</v>
       </c>
       <c r="B10" s="0">
-        <v>170.1583</v>
+        <v>196.7012</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.9091</v>
       </c>
       <c r="B11" s="0">
-        <v>171.6624</v>
+        <v>195.5369</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.8968</v>
       </c>
       <c r="B12" s="0">
-        <v>172.9503</v>
+        <v>194.7607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.8485</v>
       </c>
       <c r="B13" s="0">
-        <v>174.0388</v>
+        <v>193.2083</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.7993</v>
       </c>
       <c r="B14" s="0">
-        <v>175.4521</v>
+        <v>192.044</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.7472</v>
       </c>
       <c r="B15" s="0">
-        <v>176.5659</v>
+        <v>190.1035</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.6989</v>
       </c>
       <c r="B16" s="0">
-        <v>177.591</v>
+        <v>189.3273</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.6478</v>
       </c>
       <c r="B17" s="0">
-        <v>178.745</v>
+        <v>187.7749</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.5995</v>
       </c>
       <c r="B18" s="0">
-        <v>179.7737</v>
+        <v>186.6106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5493</v>
       </c>
       <c r="B19" s="0">
-        <v>180.5597</v>
+        <v>184.6701</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.4982</v>
       </c>
       <c r="B20" s="0">
-        <v>181.1536</v>
+        <v>183.8939</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.449</v>
       </c>
       <c r="B21" s="0">
-        <v>181.7568</v>
+        <v>183.1177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.3997</v>
       </c>
       <c r="B22" s="0">
-        <v>182.7168</v>
+        <v>181.1772</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.3524</v>
       </c>
       <c r="B23" s="0">
-        <v>183.6007</v>
+        <v>179.6248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.252</v>
       </c>
       <c r="B24" s="0">
-        <v>184.0699</v>
+        <v>176.5201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.2019</v>
       </c>
       <c r="B25" s="0">
-        <v>184.4497</v>
+        <v>173.0272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.146</v>
       </c>
       <c r="B26" s="0">
-        <v>184.7615</v>
+        <v>168.7581</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.1006</v>
       </c>
       <c r="B27" s="0">
-        <v>185.1118</v>
+        <v>164.1009</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.0864</v>
       </c>
       <c r="B28" s="0">
-        <v>185.7963</v>
+        <v>162.9366</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.0741</v>
       </c>
       <c r="B29" s="0">
-        <v>186.478</v>
+        <v>161.3842</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.0656</v>
       </c>
       <c r="B30" s="0">
-        <v>187.0984</v>
+        <v>159.8318</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.0552</v>
       </c>
       <c r="B31" s="0">
-        <v>187.3832</v>
+        <v>157.8913</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.0438</v>
       </c>
       <c r="B32" s="0">
-        <v>187.5153</v>
+        <v>155.5627</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.0344</v>
       </c>
       <c r="B33" s="0">
-        <v>188.855</v>
+        <v>152.458</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.024</v>
       </c>
       <c r="B34" s="0">
-        <v>189.846</v>
+        <v>147.4127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.0174</v>
       </c>
       <c r="B35" s="0">
-        <v>190.3548</v>
+        <v>142.7555</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.0127</v>
       </c>
       <c r="B36" s="0">
-        <v>190.3115</v>
+        <v>136.934</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.0099</v>
       </c>
       <c r="B37" s="0">
-        <v>189.6945</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>190.0227</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>190.5757</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>191.0473</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>191.5712</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>192.1079</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>192.5681</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>193.3162</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>194.1779</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>194.9879</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>195.7778</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>196.846</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>198.5171</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>200.3275</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>202.5579</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>130.7245</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 75 The role of H3PO4/Data75_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 75 The role of H3PO4/Data75_all_graphs_excel.xlsx
@@ -5,19 +5,19 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4 1-1-5  0&amp;1&amp;50&amp;350 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4 1-2  0&amp;1&amp;50&amp;350 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 4 1-2-5  0&amp;1&amp;50&amp;350 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 4 1-25h  0&amp;1&amp;50&amp;350 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 4 1-3  0&amp;1&amp;50&amp;350 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 4 1-5h  0&amp;1&amp;50&amp;350 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 4 1h  0&amp;1&amp;50&amp;350 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 4 2h  0&amp;1&amp;50&amp;350 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 4_1 300stC  0&amp;1&amp;50&amp;350 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 4_1 400stC  0&amp;1&amp;50&amp;350 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 4_1 500stC  0&amp;1&amp;50&amp;350 " sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 4_1 600stC  0&amp;1&amp;50&amp;350 " sheetId="12" r:id="rId14"/>
-    <sheet name="Figure 4_1 700stC  0&amp;1&amp;50&amp;350 " sheetId="13" r:id="rId15"/>
+    <sheet name="Figure 4_1 300stC  0&amp;1&amp;50&amp;350 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4_1 400stC  0&amp;1&amp;50&amp;350 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4_1 500stC  0&amp;1&amp;50&amp;350 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4_1 600stC  0&amp;1&amp;50&amp;350 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 4_1 700stC  0&amp;1&amp;50&amp;350 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 4_2 1-1-5  0&amp;1&amp;50&amp;350 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 4_2 1-2  0&amp;1&amp;50&amp;350 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 4_2 1-2-5  0&amp;1&amp;50&amp;350 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 4_2 1-3  0&amp;1&amp;50&amp;350 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 4_3 1-25h  0&amp;1&amp;50&amp;350 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 4_3 1-5h  0&amp;1&amp;50&amp;350 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 4_3 1h  0&amp;1&amp;50&amp;350 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 4_3 2h  0&amp;1&amp;50&amp;350 " sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -26,10 +26,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>300stC</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>400stC</t>
+  </si>
+  <si>
+    <t>500stC</t>
+  </si>
+  <si>
+    <t>600stC</t>
+  </si>
+  <si>
+    <t>700stC</t>
   </si>
   <si>
     <t>1-25h</t>
@@ -42,21 +57,6 @@
   </si>
   <si>
     <t>2h</t>
-  </si>
-  <si>
-    <t>300stC</t>
-  </si>
-  <si>
-    <t>400stC</t>
-  </si>
-  <si>
-    <t>500stC</t>
-  </si>
-  <si>
-    <t>600stC</t>
-  </si>
-  <si>
-    <t>700stC</t>
   </si>
 </sst>
 </file>
@@ -133,7 +133,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1-1-5 z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki 300stC z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -192,12 +192,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 1-1-5  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_1 300stC  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 1-1-5  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_1 300stC  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -415,6 +415,1262 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 1-25h z wykresu 'Figure 4_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4_3 1-25h  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4_3 1-25h  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 1-5h z wykresu 'Figure 4_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4_3 1-5h  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4_3 1-5h  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 1h z wykresu 'Figure 4_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4_3 1h  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4_3 1h  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 2h z wykresu 'Figure 4_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4_3 2h  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4_3 2h  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -728,7 +1984,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1042,7 +2298,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1356,7 +2612,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1670,7 +2926,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1703,7 +2959,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1-2 z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki 1-1-5 z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1762,1268 +3018,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 1-2  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 1-1-5  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 1-2  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="350"/>
-          <c:min val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1-2-5 z wykresu 'Figure 4' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 4 1-2-5  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 4 1-2-5  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="350"/>
-          <c:min val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1-25h z wykresu 'Figure 4' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 4 1-25h  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 4 1-25h  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="350"/>
-          <c:min val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1-3 z wykresu 'Figure 4' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 4 1-3  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 4 1-3  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="350"/>
-          <c:min val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1-5h z wykresu 'Figure 4' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 4 1-5h  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 4 1-5h  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 1-1-5  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3273,7 +3273,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1h z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki 1-2 z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3332,12 +3332,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 1h  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 1-2  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 1h  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 1-2  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3587,7 +3587,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 2h z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki 1-2-5 z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3646,12 +3646,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 2h  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 1-2-5  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 2h  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 1-2-5  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3901,7 +3901,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 300stC z wykresu 'Figure 4_1' </a:t>
+              <a:t>Izoterma adsorpcji probki 1-3 z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3960,12 +3960,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_1 300stC  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 1-3  0&amp;1&amp;50&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_1 300stC  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 1-3  0&amp;1&amp;50&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -12227,6 +12227,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0174</v>
+      </c>
+      <c r="B3" s="0">
+        <v>137.7102</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0326</v>
+      </c>
+      <c r="B4" s="0">
+        <v>144.3079</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0429</v>
+      </c>
+      <c r="B5" s="0">
+        <v>147.4127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0477</v>
+      </c>
+      <c r="B6" s="0">
+        <v>149.7413</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="B7" s="0">
+        <v>152.458</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0675</v>
+      </c>
+      <c r="B8" s="0">
+        <v>154.3984</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0789</v>
+      </c>
+      <c r="B9" s="0">
+        <v>156.3389</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0883</v>
+      </c>
+      <c r="B10" s="0">
+        <v>157.8913</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0987</v>
+      </c>
+      <c r="B11" s="0">
+        <v>159.8318</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1517</v>
+      </c>
+      <c r="B12" s="0">
+        <v>165.2652</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2047</v>
+      </c>
+      <c r="B13" s="0">
+        <v>170.3105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2577</v>
+      </c>
+      <c r="B14" s="0">
+        <v>174.1915</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4963</v>
+      </c>
+      <c r="B15" s="0">
+        <v>185.8344</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5446</v>
+      </c>
+      <c r="B16" s="0">
+        <v>188.163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5967</v>
+      </c>
+      <c r="B17" s="0">
+        <v>190.1035</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6459</v>
+      </c>
+      <c r="B18" s="0">
+        <v>190.8797</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6961</v>
+      </c>
+      <c r="B19" s="0">
+        <v>192.8202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.7462</v>
+      </c>
+      <c r="B20" s="0">
+        <v>195.1488</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.7964</v>
+      </c>
+      <c r="B21" s="0">
+        <v>197.0893</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.8447</v>
+      </c>
+      <c r="B22" s="0">
+        <v>199.4179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.893</v>
+      </c>
+      <c r="B23" s="0">
+        <v>201.3583</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.9081</v>
+      </c>
+      <c r="B24" s="0">
+        <v>202.1345</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.9195</v>
+      </c>
+      <c r="B25" s="0">
+        <v>203.2988</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.929</v>
+      </c>
+      <c r="B26" s="0">
+        <v>203.6869</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.9413</v>
+      </c>
+      <c r="B27" s="0">
+        <v>204.8512</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9526</v>
+      </c>
+      <c r="B28" s="0">
+        <v>206.0155</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9678</v>
+      </c>
+      <c r="B29" s="0">
+        <v>207.956</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9782</v>
+      </c>
+      <c r="B30" s="0">
+        <v>210.2846</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9867</v>
+      </c>
+      <c r="B31" s="0">
+        <v>212.6132</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.3041</v>
+      </c>
+      <c r="B32" s="0">
+        <v>176.9082</v>
+      </c>
+    </row>
+    <row r="33"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12234,288 +12502,288 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>38353</v>
+      <c r="A1" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9909</v>
+        <v>0.9932</v>
       </c>
       <c r="B3" s="0">
-        <v>297.046</v>
+        <v>327.3068</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9881</v>
+        <v>0.9864</v>
       </c>
       <c r="B4" s="0">
-        <v>294.5692</v>
+        <v>324.3285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9779</v>
+        <v>0.9787</v>
       </c>
       <c r="B5" s="0">
-        <v>291.7102</v>
+        <v>321.7218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9681</v>
+        <v>0.9692</v>
       </c>
       <c r="B6" s="0">
-        <v>289.6131</v>
+        <v>319.8583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9584</v>
+        <v>0.9601</v>
       </c>
       <c r="B7" s="0">
-        <v>288.2779</v>
+        <v>318.3671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9486</v>
+        <v>0.9501</v>
       </c>
       <c r="B8" s="0">
-        <v>286.3713</v>
+        <v>316.8754</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.938</v>
+        <v>0.9397</v>
       </c>
       <c r="B9" s="0">
-        <v>285.2264</v>
+        <v>315.3836</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9273</v>
+        <v>0.9302</v>
       </c>
       <c r="B10" s="0">
-        <v>284.4624</v>
+        <v>314.4502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9175</v>
+        <v>0.9207</v>
       </c>
       <c r="B11" s="0">
-        <v>282.9368</v>
+        <v>313.8887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9078</v>
+        <v>0.9102</v>
       </c>
       <c r="B12" s="0">
-        <v>282.173</v>
+        <v>313.1408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8948</v>
+        <v>0.8957</v>
       </c>
       <c r="B13" s="0">
-        <v>281.0277</v>
+        <v>311.4615</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.8456</v>
+        <v>0.8454</v>
       </c>
       <c r="B14" s="0">
-        <v>278.1611</v>
+        <v>307.723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7959</v>
+        <v>0.7969</v>
       </c>
       <c r="B15" s="0">
-        <v>274.9136</v>
+        <v>304.9152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7457</v>
+        <v>0.7461</v>
       </c>
       <c r="B16" s="0">
-        <v>271.8564</v>
+        <v>302.2924</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6956</v>
+        <v>0.6963</v>
       </c>
       <c r="B17" s="0">
-        <v>268.9897</v>
+        <v>299.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6459</v>
+        <v>0.6478</v>
       </c>
       <c r="B18" s="0">
-        <v>267.4564</v>
+        <v>297.7921</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5966</v>
+        <v>0.597</v>
       </c>
       <c r="B19" s="0">
-        <v>264.0185</v>
+        <v>294.7974</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.546</v>
+        <v>0.5471</v>
       </c>
       <c r="B20" s="0">
-        <v>262.1041</v>
+        <v>292.547</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4963</v>
+        <v>0.4973</v>
       </c>
       <c r="B21" s="0">
-        <v>259.8089</v>
+        <v>289.5526</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4466</v>
+        <v>0.4479</v>
       </c>
       <c r="B22" s="0">
-        <v>256.9423</v>
+        <v>286.5584</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.397</v>
+        <v>0.3989</v>
       </c>
       <c r="B23" s="0">
-        <v>254.2662</v>
+        <v>284.1223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3505</v>
+        <v>0.3531</v>
       </c>
       <c r="B24" s="0">
-        <v>251.4002</v>
+        <v>279.8276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3083</v>
+        <v>0.3137</v>
       </c>
       <c r="B25" s="0">
-        <v>247.9636</v>
+        <v>277.2091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2586</v>
+        <v>0.2647</v>
       </c>
       <c r="B26" s="0">
-        <v>243.3827</v>
+        <v>272.5411</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2066</v>
+        <v>0.2081</v>
       </c>
       <c r="B27" s="0">
-        <v>238.2299</v>
+        <v>266.5684</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1523</v>
+        <v>0.1532</v>
       </c>
       <c r="B28" s="0">
-        <v>230.9815</v>
+        <v>257.8065</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1003</v>
+        <v>0.1024</v>
       </c>
       <c r="B29" s="0">
-        <v>222.4001</v>
+        <v>247.7442</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0882</v>
+        <v>0.0893</v>
       </c>
       <c r="B30" s="0">
-        <v>220.1121</v>
+        <v>244.7635</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0789</v>
+        <v>0.0771</v>
       </c>
       <c r="B31" s="0">
-        <v>217.0627</v>
+        <v>241.2252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0682</v>
+        <v>0.0653</v>
       </c>
       <c r="B32" s="0">
-        <v>214.0131</v>
+        <v>237.873</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0594</v>
+        <v>0.0562</v>
       </c>
       <c r="B33" s="0">
-        <v>210.9638</v>
+        <v>233.7779</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0469</v>
+        <v>0.0471</v>
       </c>
       <c r="B34" s="0">
-        <v>206.7709</v>
+        <v>230.4267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0362</v>
+        <v>0.0354</v>
       </c>
       <c r="B35" s="0">
-        <v>202.1975</v>
+        <v>222.4248</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0279</v>
+        <v>0.0245</v>
       </c>
       <c r="B36" s="0">
-        <v>196.6721</v>
+        <v>215.9112</v>
       </c>
     </row>
     <row r="37">
@@ -12523,31 +12791,31 @@
         <v>0.0195</v>
       </c>
       <c r="B37" s="0">
-        <v>189.8133</v>
+        <v>208.8417</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0098</v>
+        <v>0.0118</v>
       </c>
       <c r="B38" s="0">
-        <v>178.1924</v>
+        <v>201.0273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0075</v>
+        <v>0.0095</v>
       </c>
       <c r="B39" s="0">
-        <v>172.6682</v>
+        <v>195.8188</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0047</v>
+        <v>0.0091</v>
       </c>
       <c r="B40" s="0">
-        <v>166.1915</v>
+        <v>188.1931</v>
       </c>
     </row>
     <row r="41"/>
@@ -12557,7 +12825,339 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9927</v>
+      </c>
+      <c r="B3" s="0">
+        <v>313.1715</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9864</v>
+      </c>
+      <c r="B4" s="0">
+        <v>310.5653</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9778</v>
+      </c>
+      <c r="B5" s="0">
+        <v>308.1442</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9683</v>
+      </c>
+      <c r="B6" s="0">
+        <v>306.8388</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9592</v>
+      </c>
+      <c r="B7" s="0">
+        <v>304.6035</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9483</v>
+      </c>
+      <c r="B8" s="0">
+        <v>303.4836</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.9383</v>
+      </c>
+      <c r="B9" s="0">
+        <v>301.806</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.9284</v>
+      </c>
+      <c r="B10" s="0">
+        <v>301.2443</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.9184</v>
+      </c>
+      <c r="B11" s="0">
+        <v>300.1246</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.9084</v>
+      </c>
+      <c r="B12" s="0">
+        <v>299.377</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.8962</v>
+      </c>
+      <c r="B13" s="0">
+        <v>298.6285</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.8459</v>
+      </c>
+      <c r="B14" s="0">
+        <v>295.2619</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.7969</v>
+      </c>
+      <c r="B15" s="0">
+        <v>291.71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.7457</v>
+      </c>
+      <c r="B16" s="0">
+        <v>289.645</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6967</v>
+      </c>
+      <c r="B17" s="0">
+        <v>287.5809</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6464</v>
+      </c>
+      <c r="B18" s="0">
+        <v>284.7724</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5979</v>
+      </c>
+      <c r="B19" s="0">
+        <v>282.3365</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5471</v>
+      </c>
+      <c r="B20" s="0">
+        <v>279.7138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4968</v>
+      </c>
+      <c r="B21" s="0">
+        <v>277.8351</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4474</v>
+      </c>
+      <c r="B22" s="0">
+        <v>274.655</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.3985</v>
+      </c>
+      <c r="B23" s="0">
+        <v>272.2189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3527</v>
+      </c>
+      <c r="B24" s="0">
+        <v>268.8541</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3128</v>
+      </c>
+      <c r="B25" s="0">
+        <v>265.8634</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.2638</v>
+      </c>
+      <c r="B26" s="0">
+        <v>261.5674</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.2094</v>
+      </c>
+      <c r="B27" s="0">
+        <v>255.5956</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.1519</v>
+      </c>
+      <c r="B28" s="0">
+        <v>247.3906</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.1002</v>
+      </c>
+      <c r="B29" s="0">
+        <v>237.328</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0888</v>
+      </c>
+      <c r="B30" s="0">
+        <v>234.72</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0802</v>
+      </c>
+      <c r="B31" s="0">
+        <v>232.6709</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0716</v>
+      </c>
+      <c r="B32" s="0">
+        <v>229.8779</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0653</v>
+      </c>
+      <c r="B33" s="0">
+        <v>226.7137</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0576</v>
+      </c>
+      <c r="B34" s="0">
+        <v>223.363</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0476</v>
+      </c>
+      <c r="B35" s="0">
+        <v>218.8956</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0372</v>
+      </c>
+      <c r="B36" s="0">
+        <v>213.498</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0272</v>
+      </c>
+      <c r="B37" s="0">
+        <v>206.7987</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0195</v>
+      </c>
+      <c r="B38" s="0">
+        <v>199.3563</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0104</v>
+      </c>
+      <c r="B39" s="0">
+        <v>191.3554</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0068</v>
+      </c>
+      <c r="B40" s="0">
+        <v>182.0546</v>
+      </c>
+    </row>
+    <row r="41"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -12567,303 +13167,303 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9918</v>
+        <v>0.9937</v>
       </c>
       <c r="B3" s="0">
-        <v>301.8758</v>
+        <v>340.1402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9776</v>
+        <v>0.9869</v>
       </c>
       <c r="B4" s="0">
-        <v>298.3829</v>
+        <v>337.5339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9663</v>
+        <v>0.9796</v>
       </c>
       <c r="B5" s="0">
-        <v>296.0543</v>
+        <v>334.5553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9568</v>
+        <v>0.9674</v>
       </c>
       <c r="B6" s="0">
-        <v>294.89</v>
+        <v>331.9469</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9473</v>
+        <v>0.9578</v>
       </c>
       <c r="B7" s="0">
-        <v>293.7257</v>
+        <v>330.4555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9369</v>
+        <v>0.9474</v>
       </c>
       <c r="B8" s="0">
-        <v>292.1734</v>
+        <v>329.1497</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9369</v>
+        <v>0.9388</v>
       </c>
       <c r="B9" s="0">
-        <v>292.1734</v>
+        <v>328.0306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9256</v>
+        <v>0.9284</v>
       </c>
       <c r="B10" s="0">
-        <v>291.0091</v>
+        <v>326.7248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9161</v>
+        <v>0.918</v>
       </c>
       <c r="B11" s="0">
-        <v>290.2329</v>
+        <v>326.3489</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9066</v>
+        <v>0.908</v>
       </c>
       <c r="B12" s="0">
-        <v>289.4567</v>
+        <v>324.8573</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8934</v>
+        <v>0.8948</v>
       </c>
       <c r="B13" s="0">
-        <v>287.9043</v>
+        <v>324.1084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.8451</v>
+        <v>0.8459</v>
       </c>
       <c r="B14" s="0">
-        <v>285.1876</v>
+        <v>319.9985</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7949</v>
+        <v>0.7969</v>
       </c>
       <c r="B15" s="0">
-        <v>282.0828</v>
+        <v>316.4465</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7457</v>
+        <v>0.7461</v>
       </c>
       <c r="B16" s="0">
-        <v>280.1423</v>
+        <v>313.4518</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6955</v>
+        <v>0.6954</v>
       </c>
       <c r="B17" s="0">
-        <v>277.4256</v>
+        <v>311.015</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6463</v>
+        <v>0.6473</v>
       </c>
       <c r="B18" s="0">
-        <v>275.097</v>
+        <v>308.2073</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5952</v>
+        <v>0.5975</v>
       </c>
       <c r="B19" s="0">
-        <v>271.9922</v>
+        <v>305.9569</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.546</v>
+        <v>0.5471</v>
       </c>
       <c r="B20" s="0">
-        <v>269.6636</v>
+        <v>303.1483</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4958</v>
+        <v>0.4964</v>
       </c>
       <c r="B21" s="0">
-        <v>266.947</v>
+        <v>299.7817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4447</v>
+        <v>0.4465</v>
       </c>
       <c r="B22" s="0">
-        <v>264.2303</v>
+        <v>296.6013</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3964</v>
+        <v>0.4003</v>
       </c>
       <c r="B23" s="0">
-        <v>261.1255</v>
+        <v>294.5382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3519</v>
+        <v>0.3549</v>
       </c>
       <c r="B24" s="0">
-        <v>258.0207</v>
+        <v>290.9876</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3093</v>
+        <v>0.3114</v>
       </c>
       <c r="B25" s="0">
-        <v>254.5278</v>
+        <v>286.1357</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2601</v>
+        <v>0.2638</v>
       </c>
       <c r="B26" s="0">
-        <v>251.423</v>
+        <v>282.0262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2071</v>
+        <v>0.209</v>
       </c>
       <c r="B27" s="0">
-        <v>245.6016</v>
+        <v>274.9382</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1494</v>
+        <v>0.1505</v>
       </c>
       <c r="B28" s="0">
-        <v>237.8396</v>
+        <v>266.547</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0993</v>
+        <v>0.0997</v>
       </c>
       <c r="B29" s="0">
-        <v>228.9133</v>
+        <v>254.2528</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0889</v>
+        <v>0.0875</v>
       </c>
       <c r="B30" s="0">
-        <v>226.1966</v>
+        <v>251.6444</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0785</v>
+        <v>0.0789</v>
       </c>
       <c r="B31" s="0">
-        <v>223.0918</v>
+        <v>249.0374</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0662</v>
+        <v>0.0716</v>
       </c>
       <c r="B32" s="0">
-        <v>219.9871</v>
+        <v>246.0589</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0558</v>
+        <v>0.0639</v>
       </c>
       <c r="B33" s="0">
-        <v>216.1061</v>
+        <v>243.0802</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0425</v>
+        <v>0.0526</v>
       </c>
       <c r="B34" s="0">
-        <v>210.6727</v>
+        <v>238.2403</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0265</v>
+        <v>0.044</v>
       </c>
       <c r="B35" s="0">
-        <v>200.5821</v>
+        <v>234.1453</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0199</v>
+        <v>0.0326</v>
       </c>
       <c r="B36" s="0">
-        <v>193.2083</v>
+        <v>227.6315</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0105</v>
+        <v>0.0227</v>
       </c>
       <c r="B37" s="0">
-        <v>185.8344</v>
+        <v>218.8863</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0077</v>
+        <v>0.0104</v>
       </c>
       <c r="B38" s="0">
-        <v>174.5796</v>
+        <v>204.5606</v>
       </c>
     </row>
     <row r="39"/>
@@ -12873,7 +13473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B42"/>
   <sheetViews>
@@ -12883,327 +13483,327 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9878</v>
+        <v>0.9932</v>
       </c>
       <c r="B3" s="0">
-        <v>337.5809</v>
+        <v>288.9931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9783</v>
+        <v>0.9882</v>
       </c>
       <c r="B4" s="0">
-        <v>334.8642</v>
+        <v>286.2014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9679</v>
+        <v>0.9787</v>
       </c>
       <c r="B5" s="0">
-        <v>332.5356</v>
+        <v>284.338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9575</v>
+        <v>0.9696</v>
       </c>
       <c r="B6" s="0">
-        <v>330.5951</v>
+        <v>281.9168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.949</v>
+        <v>0.9592</v>
       </c>
       <c r="B7" s="0">
-        <v>329.0427</v>
+        <v>280.611</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9395</v>
+        <v>0.9501</v>
       </c>
       <c r="B8" s="0">
-        <v>328.2665</v>
+        <v>279.1197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9291</v>
+        <v>0.9406</v>
       </c>
       <c r="B9" s="0">
-        <v>327.1022</v>
+        <v>278.5582</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9206</v>
+        <v>0.9302</v>
       </c>
       <c r="B10" s="0">
-        <v>325.9379</v>
+        <v>277.2524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9083</v>
+        <v>0.9211</v>
       </c>
       <c r="B11" s="0">
-        <v>324.7736</v>
+        <v>276.6911</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.8951</v>
+        <v>0.9084</v>
       </c>
       <c r="B12" s="0">
-        <v>323.9974</v>
+        <v>275.3844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8458</v>
+        <v>0.8953</v>
       </c>
       <c r="B13" s="0">
-        <v>319.7283</v>
+        <v>273.8916</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7957</v>
+        <v>0.8477</v>
       </c>
       <c r="B14" s="0">
-        <v>316.2354</v>
+        <v>270.8981</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7464</v>
+        <v>0.7965</v>
       </c>
       <c r="B15" s="0">
-        <v>312.7426</v>
+        <v>268.2752</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6953</v>
+        <v>0.7475</v>
       </c>
       <c r="B16" s="0">
-        <v>310.414</v>
+        <v>266.0251</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6461</v>
+        <v>0.6967</v>
       </c>
       <c r="B17" s="0">
-        <v>308.0854</v>
+        <v>263.4024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5959</v>
+        <v>0.6473</v>
       </c>
       <c r="B18" s="0">
-        <v>305.3687</v>
+        <v>261.5241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5467</v>
+        <v>0.5979</v>
       </c>
       <c r="B19" s="0">
-        <v>302.2639</v>
+        <v>258.7159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4965</v>
+        <v>0.5485</v>
       </c>
       <c r="B20" s="0">
-        <v>299.9353</v>
+        <v>256.8376</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4464</v>
+        <v>0.4982</v>
       </c>
       <c r="B21" s="0">
-        <v>296.8305</v>
+        <v>254.4011</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.399</v>
+        <v>0.4474</v>
       </c>
       <c r="B22" s="0">
-        <v>293.7257</v>
+        <v>251.5923</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3536</v>
+        <v>0.3994</v>
       </c>
       <c r="B23" s="0">
-        <v>290.2329</v>
+        <v>249.5286</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3129</v>
+        <v>0.3554</v>
       </c>
       <c r="B24" s="0">
-        <v>286.3519</v>
+        <v>246.3504</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2637</v>
+        <v>0.3123</v>
       </c>
       <c r="B25" s="0">
-        <v>281.6947</v>
+        <v>242.9866</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2069</v>
+        <v>0.2634</v>
       </c>
       <c r="B26" s="0">
-        <v>274.3208</v>
+        <v>238.5047</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1492</v>
+        <v>0.2081</v>
       </c>
       <c r="B27" s="0">
-        <v>265.7827</v>
+        <v>233.2764</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1029</v>
+        <v>0.1523</v>
       </c>
       <c r="B28" s="0">
-        <v>255.6921</v>
+        <v>225.6301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0877</v>
+        <v>0.1006</v>
       </c>
       <c r="B29" s="0">
-        <v>252.5873</v>
+        <v>215.9395</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0792</v>
+        <v>0.0907</v>
       </c>
       <c r="B30" s="0">
-        <v>250.2587</v>
+        <v>214.2619</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0707</v>
+        <v>0.0807</v>
       </c>
       <c r="B31" s="0">
-        <v>247.542</v>
+        <v>212.0263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0632</v>
+        <v>0.068</v>
       </c>
       <c r="B32" s="0">
-        <v>243.6611</v>
+        <v>207.5578</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0566</v>
+        <v>0.058</v>
       </c>
       <c r="B33" s="0">
-        <v>240.1682</v>
+        <v>204.0203</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.049</v>
+        <v>0.0462</v>
       </c>
       <c r="B34" s="0">
-        <v>236.6753</v>
+        <v>200.2962</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0443</v>
+        <v>0.0372</v>
       </c>
       <c r="B35" s="0">
-        <v>232.4062</v>
+        <v>194.5272</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0358</v>
+        <v>0.0281</v>
       </c>
       <c r="B36" s="0">
-        <v>228.9133</v>
+        <v>188.2002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0264</v>
+        <v>0.0195</v>
       </c>
       <c r="B37" s="0">
-        <v>222.3157</v>
+        <v>180.5714</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0189</v>
+        <v>0.01</v>
       </c>
       <c r="B38" s="0">
-        <v>213.7775</v>
+        <v>168.1066</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0123</v>
+        <v>0.0073</v>
       </c>
       <c r="B39" s="0">
-        <v>205.6274</v>
+        <v>162.5259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0085</v>
+        <v>0.0054</v>
       </c>
       <c r="B40" s="0">
-        <v>201.3583</v>
+        <v>157.6896</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.0067</v>
+        <v>0.0041</v>
       </c>
       <c r="B41" s="0">
-        <v>193.2083</v>
+        <v>150.0635</v>
       </c>
     </row>
     <row r="42"/>
@@ -13213,7 +13813,323 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9918</v>
+      </c>
+      <c r="B3" s="0">
+        <v>301.8758</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9776</v>
+      </c>
+      <c r="B4" s="0">
+        <v>298.3829</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9663</v>
+      </c>
+      <c r="B5" s="0">
+        <v>296.0543</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9568</v>
+      </c>
+      <c r="B6" s="0">
+        <v>294.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9473</v>
+      </c>
+      <c r="B7" s="0">
+        <v>293.7257</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9369</v>
+      </c>
+      <c r="B8" s="0">
+        <v>292.1734</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.9369</v>
+      </c>
+      <c r="B9" s="0">
+        <v>292.1734</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.9256</v>
+      </c>
+      <c r="B10" s="0">
+        <v>291.0091</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.9161</v>
+      </c>
+      <c r="B11" s="0">
+        <v>290.2329</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.9066</v>
+      </c>
+      <c r="B12" s="0">
+        <v>289.4567</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.8934</v>
+      </c>
+      <c r="B13" s="0">
+        <v>287.9043</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.8451</v>
+      </c>
+      <c r="B14" s="0">
+        <v>285.1876</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.7949</v>
+      </c>
+      <c r="B15" s="0">
+        <v>282.0828</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.7457</v>
+      </c>
+      <c r="B16" s="0">
+        <v>280.1423</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6955</v>
+      </c>
+      <c r="B17" s="0">
+        <v>277.4256</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6463</v>
+      </c>
+      <c r="B18" s="0">
+        <v>275.097</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5952</v>
+      </c>
+      <c r="B19" s="0">
+        <v>271.9922</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.546</v>
+      </c>
+      <c r="B20" s="0">
+        <v>269.6636</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4958</v>
+      </c>
+      <c r="B21" s="0">
+        <v>266.947</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4447</v>
+      </c>
+      <c r="B22" s="0">
+        <v>264.2303</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.3964</v>
+      </c>
+      <c r="B23" s="0">
+        <v>261.1255</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3519</v>
+      </c>
+      <c r="B24" s="0">
+        <v>258.0207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3093</v>
+      </c>
+      <c r="B25" s="0">
+        <v>254.5278</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.2601</v>
+      </c>
+      <c r="B26" s="0">
+        <v>251.423</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.2071</v>
+      </c>
+      <c r="B27" s="0">
+        <v>245.6016</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.1494</v>
+      </c>
+      <c r="B28" s="0">
+        <v>237.8396</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0993</v>
+      </c>
+      <c r="B29" s="0">
+        <v>228.9133</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0889</v>
+      </c>
+      <c r="B30" s="0">
+        <v>226.1966</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0785</v>
+      </c>
+      <c r="B31" s="0">
+        <v>223.0918</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0662</v>
+      </c>
+      <c r="B32" s="0">
+        <v>219.9871</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0558</v>
+      </c>
+      <c r="B33" s="0">
+        <v>216.1061</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0425</v>
+      </c>
+      <c r="B34" s="0">
+        <v>210.6727</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0265</v>
+      </c>
+      <c r="B35" s="0">
+        <v>200.5821</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0199</v>
+      </c>
+      <c r="B36" s="0">
+        <v>193.2083</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0105</v>
+      </c>
+      <c r="B37" s="0">
+        <v>185.8344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0077</v>
+      </c>
+      <c r="B38" s="0">
+        <v>174.5796</v>
+      </c>
+    </row>
+    <row r="39"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B42"/>
   <sheetViews>
@@ -13223,327 +14139,327 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9926</v>
+        <v>0.9878</v>
       </c>
       <c r="B3" s="0">
-        <v>322.8331</v>
+        <v>337.5809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.985</v>
+        <v>0.9783</v>
       </c>
       <c r="B4" s="0">
-        <v>320.1164</v>
+        <v>334.8642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9775</v>
+        <v>0.9679</v>
       </c>
       <c r="B5" s="0">
-        <v>318.1759</v>
+        <v>332.5356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.969</v>
+        <v>0.9575</v>
       </c>
       <c r="B6" s="0">
-        <v>316.2354</v>
+        <v>330.5951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9586</v>
+        <v>0.949</v>
       </c>
       <c r="B7" s="0">
-        <v>314.295</v>
+        <v>329.0427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9482</v>
+        <v>0.9395</v>
       </c>
       <c r="B8" s="0">
-        <v>313.1307</v>
+        <v>328.2665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9387</v>
+        <v>0.9291</v>
       </c>
       <c r="B9" s="0">
-        <v>311.9664</v>
+        <v>327.1022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9273</v>
+        <v>0.9206</v>
       </c>
       <c r="B10" s="0">
-        <v>311.1902</v>
+        <v>325.9379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9188</v>
+        <v>0.9083</v>
       </c>
       <c r="B11" s="0">
-        <v>310.414</v>
+        <v>324.7736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9093</v>
+        <v>0.8951</v>
       </c>
       <c r="B12" s="0">
-        <v>310.0259</v>
+        <v>323.9974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.897</v>
+        <v>0.8458</v>
       </c>
       <c r="B13" s="0">
-        <v>308.4735</v>
+        <v>319.7283</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.8459</v>
+        <v>0.7957</v>
       </c>
       <c r="B14" s="0">
-        <v>305.3687</v>
+        <v>316.2354</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7948</v>
+        <v>0.7464</v>
       </c>
       <c r="B15" s="0">
-        <v>301.8758</v>
+        <v>312.7426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7456</v>
+        <v>0.6953</v>
       </c>
       <c r="B16" s="0">
-        <v>299.5472</v>
+        <v>310.414</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6973</v>
+        <v>0.6461</v>
       </c>
       <c r="B17" s="0">
-        <v>297.6067</v>
+        <v>308.0854</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6452</v>
+        <v>0.5959</v>
       </c>
       <c r="B18" s="0">
-        <v>294.89</v>
+        <v>305.3687</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.596</v>
+        <v>0.5467</v>
       </c>
       <c r="B19" s="0">
-        <v>292.5614</v>
+        <v>302.2639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5458</v>
+        <v>0.4965</v>
       </c>
       <c r="B20" s="0">
-        <v>290.621</v>
+        <v>299.9353</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4957</v>
+        <v>0.4464</v>
       </c>
       <c r="B21" s="0">
-        <v>287.9043</v>
+        <v>296.8305</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4957</v>
+        <v>0.399</v>
       </c>
       <c r="B22" s="0">
-        <v>287.9043</v>
+        <v>293.7257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4455</v>
+        <v>0.3536</v>
       </c>
       <c r="B23" s="0">
-        <v>285.1876</v>
+        <v>290.2329</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3982</v>
+        <v>0.3129</v>
       </c>
       <c r="B24" s="0">
-        <v>282.859</v>
+        <v>286.3519</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3489</v>
+        <v>0.2637</v>
       </c>
       <c r="B25" s="0">
-        <v>279.7542</v>
+        <v>281.6947</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3073</v>
+        <v>0.2069</v>
       </c>
       <c r="B26" s="0">
-        <v>276.6494</v>
+        <v>274.3208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2609</v>
+        <v>0.1492</v>
       </c>
       <c r="B27" s="0">
-        <v>272.3803</v>
+        <v>265.7827</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.2051</v>
+        <v>0.1029</v>
       </c>
       <c r="B28" s="0">
-        <v>266.947</v>
+        <v>255.6921</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1511</v>
+        <v>0.0877</v>
       </c>
       <c r="B29" s="0">
-        <v>259.9612</v>
+        <v>252.5873</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.1019</v>
+        <v>0.0792</v>
       </c>
       <c r="B30" s="0">
-        <v>251.8111</v>
+        <v>250.2587</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0897</v>
+        <v>0.0707</v>
       </c>
       <c r="B31" s="0">
-        <v>248.3182</v>
+        <v>247.542</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0783</v>
+        <v>0.0632</v>
       </c>
       <c r="B32" s="0">
-        <v>245.6016</v>
+        <v>243.6611</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.067</v>
+        <v>0.0566</v>
       </c>
       <c r="B33" s="0">
-        <v>242.8849</v>
+        <v>240.1682</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0585</v>
+        <v>0.049</v>
       </c>
       <c r="B34" s="0">
-        <v>239.392</v>
+        <v>236.6753</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0519</v>
+        <v>0.0443</v>
       </c>
       <c r="B35" s="0">
-        <v>235.8991</v>
+        <v>232.4062</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0424</v>
+        <v>0.0358</v>
       </c>
       <c r="B36" s="0">
-        <v>232.4062</v>
+        <v>228.9133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0358</v>
+        <v>0.0264</v>
       </c>
       <c r="B37" s="0">
-        <v>228.1371</v>
+        <v>222.3157</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0273</v>
+        <v>0.0189</v>
       </c>
       <c r="B38" s="0">
-        <v>223.4799</v>
+        <v>213.7775</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0198</v>
+        <v>0.0123</v>
       </c>
       <c r="B39" s="0">
-        <v>216.4942</v>
+        <v>205.6274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0104</v>
+        <v>0.0085</v>
       </c>
       <c r="B40" s="0">
-        <v>206.7917</v>
+        <v>201.3583</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.0076</v>
+        <v>0.0067</v>
       </c>
       <c r="B41" s="0">
-        <v>197.8655</v>
+        <v>193.2083</v>
       </c>
     </row>
     <row r="42"/>
@@ -13553,7 +14469,347 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9926</v>
+      </c>
+      <c r="B3" s="0">
+        <v>322.8331</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.985</v>
+      </c>
+      <c r="B4" s="0">
+        <v>320.1164</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9775</v>
+      </c>
+      <c r="B5" s="0">
+        <v>318.1759</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.969</v>
+      </c>
+      <c r="B6" s="0">
+        <v>316.2354</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9586</v>
+      </c>
+      <c r="B7" s="0">
+        <v>314.295</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9482</v>
+      </c>
+      <c r="B8" s="0">
+        <v>313.1307</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.9387</v>
+      </c>
+      <c r="B9" s="0">
+        <v>311.9664</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.9273</v>
+      </c>
+      <c r="B10" s="0">
+        <v>311.1902</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.9188</v>
+      </c>
+      <c r="B11" s="0">
+        <v>310.414</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.9093</v>
+      </c>
+      <c r="B12" s="0">
+        <v>310.0259</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.897</v>
+      </c>
+      <c r="B13" s="0">
+        <v>308.4735</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.8459</v>
+      </c>
+      <c r="B14" s="0">
+        <v>305.3687</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.7948</v>
+      </c>
+      <c r="B15" s="0">
+        <v>301.8758</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.7456</v>
+      </c>
+      <c r="B16" s="0">
+        <v>299.5472</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6973</v>
+      </c>
+      <c r="B17" s="0">
+        <v>297.6067</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6452</v>
+      </c>
+      <c r="B18" s="0">
+        <v>294.89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.596</v>
+      </c>
+      <c r="B19" s="0">
+        <v>292.5614</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5458</v>
+      </c>
+      <c r="B20" s="0">
+        <v>290.621</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4957</v>
+      </c>
+      <c r="B21" s="0">
+        <v>287.9043</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4957</v>
+      </c>
+      <c r="B22" s="0">
+        <v>287.9043</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4455</v>
+      </c>
+      <c r="B23" s="0">
+        <v>285.1876</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3982</v>
+      </c>
+      <c r="B24" s="0">
+        <v>282.859</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3489</v>
+      </c>
+      <c r="B25" s="0">
+        <v>279.7542</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3073</v>
+      </c>
+      <c r="B26" s="0">
+        <v>276.6494</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.2609</v>
+      </c>
+      <c r="B27" s="0">
+        <v>272.3803</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.2051</v>
+      </c>
+      <c r="B28" s="0">
+        <v>266.947</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.1511</v>
+      </c>
+      <c r="B29" s="0">
+        <v>259.9612</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1019</v>
+      </c>
+      <c r="B30" s="0">
+        <v>251.8111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0897</v>
+      </c>
+      <c r="B31" s="0">
+        <v>248.3182</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0783</v>
+      </c>
+      <c r="B32" s="0">
+        <v>245.6016</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.067</v>
+      </c>
+      <c r="B33" s="0">
+        <v>242.8849</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0585</v>
+      </c>
+      <c r="B34" s="0">
+        <v>239.392</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0519</v>
+      </c>
+      <c r="B35" s="0">
+        <v>235.8991</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0424</v>
+      </c>
+      <c r="B36" s="0">
+        <v>232.4062</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0358</v>
+      </c>
+      <c r="B37" s="0">
+        <v>228.1371</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0273</v>
+      </c>
+      <c r="B38" s="0">
+        <v>223.4799</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0198</v>
+      </c>
+      <c r="B39" s="0">
+        <v>216.4942</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0104</v>
+      </c>
+      <c r="B40" s="0">
+        <v>206.7917</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0076</v>
+      </c>
+      <c r="B41" s="0">
+        <v>197.8655</v>
+      </c>
+    </row>
+    <row r="42"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -13563,15 +14819,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -13855,1350 +15111,6 @@
       </c>
     </row>
     <row r="38"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.994</v>
-      </c>
-      <c r="B3" s="0">
-        <v>339.7132</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9866</v>
-      </c>
-      <c r="B4" s="0">
-        <v>336.8547</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9768</v>
-      </c>
-      <c r="B5" s="0">
-        <v>334.7576</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9694</v>
-      </c>
-      <c r="B6" s="0">
-        <v>331.3276</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.9583</v>
-      </c>
-      <c r="B7" s="0">
-        <v>329.4207</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.9485</v>
-      </c>
-      <c r="B8" s="0">
-        <v>328.4665</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.9397</v>
-      </c>
-      <c r="B9" s="0">
-        <v>327.7029</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.929</v>
-      </c>
-      <c r="B10" s="0">
-        <v>325.9866</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.9193</v>
-      </c>
-      <c r="B11" s="0">
-        <v>325.4133</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.9086</v>
-      </c>
-      <c r="B12" s="0">
-        <v>324.4589</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.8956</v>
-      </c>
-      <c r="B13" s="0">
-        <v>323.3135</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.8464</v>
-      </c>
-      <c r="B14" s="0">
-        <v>319.6851</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.7967</v>
-      </c>
-      <c r="B15" s="0">
-        <v>315.8661</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.747</v>
-      </c>
-      <c r="B16" s="0">
-        <v>312.809</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.6968</v>
-      </c>
-      <c r="B17" s="0">
-        <v>309.9423</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.6471</v>
-      </c>
-      <c r="B18" s="0">
-        <v>307.4567</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5974</v>
-      </c>
-      <c r="B19" s="0">
-        <v>305.1615</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5473</v>
-      </c>
-      <c r="B20" s="0">
-        <v>302.1043</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4962</v>
-      </c>
-      <c r="B21" s="0">
-        <v>299.4279</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4475</v>
-      </c>
-      <c r="B22" s="0">
-        <v>295.9901</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.3996</v>
-      </c>
-      <c r="B23" s="0">
-        <v>294.2667</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.3532</v>
-      </c>
-      <c r="B24" s="0">
-        <v>290.0674</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.3128</v>
-      </c>
-      <c r="B25" s="0">
-        <v>286.6311</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.264</v>
-      </c>
-      <c r="B26" s="0">
-        <v>281.479</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.2088</v>
-      </c>
-      <c r="B27" s="0">
-        <v>274.4208</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.1503</v>
-      </c>
-      <c r="B28" s="0">
-        <v>265.0763</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.1002</v>
-      </c>
-      <c r="B29" s="0">
-        <v>254.4001</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0793</v>
-      </c>
-      <c r="B30" s="0">
-        <v>248.4914</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0658</v>
-      </c>
-      <c r="B31" s="0">
-        <v>243.346</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0561</v>
-      </c>
-      <c r="B32" s="0">
-        <v>239.9155</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0454</v>
-      </c>
-      <c r="B33" s="0">
-        <v>234.5802</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0352</v>
-      </c>
-      <c r="B34" s="0">
-        <v>227.3401</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0273</v>
-      </c>
-      <c r="B35" s="0">
-        <v>221.4339</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0185</v>
-      </c>
-      <c r="B36" s="0">
-        <v>213.6227</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0116</v>
-      </c>
-      <c r="B37" s="0">
-        <v>204.8594</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0093</v>
-      </c>
-      <c r="B38" s="0">
-        <v>200.0971</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0079</v>
-      </c>
-      <c r="B39" s="0">
-        <v>197.0492</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0061</v>
-      </c>
-      <c r="B40" s="0">
-        <v>192.6679</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0047</v>
-      </c>
-      <c r="B41" s="0">
-        <v>186.9534</v>
-      </c>
-    </row>
-    <row r="42"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>38354</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9929</v>
-      </c>
-      <c r="B3" s="0">
-        <v>258.5702</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9864</v>
-      </c>
-      <c r="B4" s="0">
-        <v>256.6642</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9785</v>
-      </c>
-      <c r="B5" s="0">
-        <v>255.3293</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9696</v>
-      </c>
-      <c r="B6" s="0">
-        <v>253.4229</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.958</v>
-      </c>
-      <c r="B7" s="0">
-        <v>250.9445</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.9478</v>
-      </c>
-      <c r="B8" s="0">
-        <v>250.1806</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.9385</v>
-      </c>
-      <c r="B9" s="0">
-        <v>248.8455</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.9293</v>
-      </c>
-      <c r="B10" s="0">
-        <v>248.0819</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B11" s="0">
-        <v>247.6991</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.9079</v>
-      </c>
-      <c r="B12" s="0">
-        <v>246.7444</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.8958</v>
-      </c>
-      <c r="B13" s="0">
-        <v>246.1707</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.8457</v>
-      </c>
-      <c r="B14" s="0">
-        <v>242.5421</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.7969</v>
-      </c>
-      <c r="B15" s="0">
-        <v>239.4852</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.7472</v>
-      </c>
-      <c r="B16" s="0">
-        <v>238.1424</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.6961</v>
-      </c>
-      <c r="B17" s="0">
-        <v>236.2279</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.646</v>
-      </c>
-      <c r="B18" s="0">
-        <v>233.9327</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5972</v>
-      </c>
-      <c r="B19" s="0">
-        <v>231.6377</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.548</v>
-      </c>
-      <c r="B20" s="0">
-        <v>229.533</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4969</v>
-      </c>
-      <c r="B21" s="0">
-        <v>226.6662</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4481</v>
-      </c>
-      <c r="B22" s="0">
-        <v>224.5616</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.3994</v>
-      </c>
-      <c r="B23" s="0">
-        <v>222.6476</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.3548</v>
-      </c>
-      <c r="B24" s="0">
-        <v>220.5439</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.307</v>
-      </c>
-      <c r="B25" s="0">
-        <v>216.3443</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.2596</v>
-      </c>
-      <c r="B26" s="0">
-        <v>213.0972</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.2062</v>
-      </c>
-      <c r="B27" s="0">
-        <v>208.1346</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.1528</v>
-      </c>
-      <c r="B28" s="0">
-        <v>203.3625</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.1003</v>
-      </c>
-      <c r="B29" s="0">
-        <v>194.2097</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0892</v>
-      </c>
-      <c r="B30" s="0">
-        <v>192.3028</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.079</v>
-      </c>
-      <c r="B31" s="0">
-        <v>190.0151</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0697</v>
-      </c>
-      <c r="B32" s="0">
-        <v>188.8705</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0618</v>
-      </c>
-      <c r="B33" s="0">
-        <v>186.0119</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0516</v>
-      </c>
-      <c r="B34" s="0">
-        <v>182.5813</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0414</v>
-      </c>
-      <c r="B35" s="0">
-        <v>180.1032</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0326</v>
-      </c>
-      <c r="B36" s="0">
-        <v>174.7682</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.027</v>
-      </c>
-      <c r="B37" s="0">
-        <v>170.5767</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0178</v>
-      </c>
-      <c r="B38" s="0">
-        <v>164.2892</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0108</v>
-      </c>
-      <c r="B39" s="0">
-        <v>158.7641</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.009</v>
-      </c>
-      <c r="B40" s="0">
-        <v>153.2399</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0067</v>
-      </c>
-      <c r="B41" s="0">
-        <v>149.2395</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.0062</v>
-      </c>
-      <c r="B42" s="0">
-        <v>143.5251</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.003</v>
-      </c>
-      <c r="B43" s="0">
-        <v>136.8578</v>
-      </c>
-    </row>
-    <row r="44"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9932</v>
-      </c>
-      <c r="B3" s="0">
-        <v>327.3068</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9864</v>
-      </c>
-      <c r="B4" s="0">
-        <v>324.3285</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9787</v>
-      </c>
-      <c r="B5" s="0">
-        <v>321.7218</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9692</v>
-      </c>
-      <c r="B6" s="0">
-        <v>319.8583</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.9601</v>
-      </c>
-      <c r="B7" s="0">
-        <v>318.3671</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.9501</v>
-      </c>
-      <c r="B8" s="0">
-        <v>316.8754</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.9397</v>
-      </c>
-      <c r="B9" s="0">
-        <v>315.3836</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.9302</v>
-      </c>
-      <c r="B10" s="0">
-        <v>314.4502</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.9207</v>
-      </c>
-      <c r="B11" s="0">
-        <v>313.8887</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.9102</v>
-      </c>
-      <c r="B12" s="0">
-        <v>313.1408</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.8957</v>
-      </c>
-      <c r="B13" s="0">
-        <v>311.4615</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.8454</v>
-      </c>
-      <c r="B14" s="0">
-        <v>307.723</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.7969</v>
-      </c>
-      <c r="B15" s="0">
-        <v>304.9152</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.7461</v>
-      </c>
-      <c r="B16" s="0">
-        <v>302.2924</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.6963</v>
-      </c>
-      <c r="B17" s="0">
-        <v>299.67</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.6478</v>
-      </c>
-      <c r="B18" s="0">
-        <v>297.7921</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.597</v>
-      </c>
-      <c r="B19" s="0">
-        <v>294.7974</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5471</v>
-      </c>
-      <c r="B20" s="0">
-        <v>292.547</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4973</v>
-      </c>
-      <c r="B21" s="0">
-        <v>289.5526</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4479</v>
-      </c>
-      <c r="B22" s="0">
-        <v>286.5584</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.3989</v>
-      </c>
-      <c r="B23" s="0">
-        <v>284.1223</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.3531</v>
-      </c>
-      <c r="B24" s="0">
-        <v>279.8276</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.3137</v>
-      </c>
-      <c r="B25" s="0">
-        <v>277.2091</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.2647</v>
-      </c>
-      <c r="B26" s="0">
-        <v>272.5411</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.2081</v>
-      </c>
-      <c r="B27" s="0">
-        <v>266.5684</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.1532</v>
-      </c>
-      <c r="B28" s="0">
-        <v>257.8065</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.1024</v>
-      </c>
-      <c r="B29" s="0">
-        <v>247.7442</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0893</v>
-      </c>
-      <c r="B30" s="0">
-        <v>244.7635</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0771</v>
-      </c>
-      <c r="B31" s="0">
-        <v>241.2252</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0653</v>
-      </c>
-      <c r="B32" s="0">
-        <v>237.873</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0562</v>
-      </c>
-      <c r="B33" s="0">
-        <v>233.7779</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0471</v>
-      </c>
-      <c r="B34" s="0">
-        <v>230.4267</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0354</v>
-      </c>
-      <c r="B35" s="0">
-        <v>222.4248</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0245</v>
-      </c>
-      <c r="B36" s="0">
-        <v>215.9112</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0195</v>
-      </c>
-      <c r="B37" s="0">
-        <v>208.8417</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0118</v>
-      </c>
-      <c r="B38" s="0">
-        <v>201.0273</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0095</v>
-      </c>
-      <c r="B39" s="0">
-        <v>195.8188</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0091</v>
-      </c>
-      <c r="B40" s="0">
-        <v>188.1931</v>
-      </c>
-    </row>
-    <row r="41"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9921</v>
-      </c>
-      <c r="B3" s="0">
-        <v>188.8557</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9801</v>
-      </c>
-      <c r="B4" s="0">
-        <v>186.5677</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9694</v>
-      </c>
-      <c r="B5" s="0">
-        <v>184.8514</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9596</v>
-      </c>
-      <c r="B6" s="0">
-        <v>182.7543</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.9494</v>
-      </c>
-      <c r="B7" s="0">
-        <v>181.419</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.9388</v>
-      </c>
-      <c r="B8" s="0">
-        <v>180.2741</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.9299</v>
-      </c>
-      <c r="B9" s="0">
-        <v>179.3201</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.9206</v>
-      </c>
-      <c r="B10" s="0">
-        <v>178.5564</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.9114</v>
-      </c>
-      <c r="B11" s="0">
-        <v>177.9832</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.8984</v>
-      </c>
-      <c r="B12" s="0">
-        <v>177.4093</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.8463</v>
-      </c>
-      <c r="B13" s="0">
-        <v>174.7327</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.798</v>
-      </c>
-      <c r="B14" s="0">
-        <v>172.2473</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.7488</v>
-      </c>
-      <c r="B15" s="0">
-        <v>170.5237</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.6968</v>
-      </c>
-      <c r="B16" s="0">
-        <v>167.8471</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.6466</v>
-      </c>
-      <c r="B17" s="0">
-        <v>166.3137</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5974</v>
-      </c>
-      <c r="B18" s="0">
-        <v>164.7805</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5491</v>
-      </c>
-      <c r="B19" s="0">
-        <v>163.2475</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.498</v>
-      </c>
-      <c r="B20" s="0">
-        <v>160.9521</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4502</v>
-      </c>
-      <c r="B21" s="0">
-        <v>158.6573</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.3986</v>
-      </c>
-      <c r="B22" s="0">
-        <v>157.1236</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.3541</v>
-      </c>
-      <c r="B23" s="0">
-        <v>155.0199</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.3058</v>
-      </c>
-      <c r="B24" s="0">
-        <v>152.5345</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.2551</v>
-      </c>
-      <c r="B25" s="0">
-        <v>149.8582</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.2031</v>
-      </c>
-      <c r="B26" s="0">
-        <v>145.8483</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.1432</v>
-      </c>
-      <c r="B27" s="0">
-        <v>141.075</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.1015</v>
-      </c>
-      <c r="B28" s="0">
-        <v>136.3051</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0894</v>
-      </c>
-      <c r="B29" s="0">
-        <v>134.3981</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0792</v>
-      </c>
-      <c r="B30" s="0">
-        <v>133.4437</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0703</v>
-      </c>
-      <c r="B31" s="0">
-        <v>131.1563</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0597</v>
-      </c>
-      <c r="B32" s="0">
-        <v>129.6305</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0462</v>
-      </c>
-      <c r="B33" s="0">
-        <v>125.8184</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0309</v>
-      </c>
-      <c r="B34" s="0">
-        <v>122.1964</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0184</v>
-      </c>
-      <c r="B35" s="0">
-        <v>115.5274</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0086</v>
-      </c>
-      <c r="B36" s="0">
-        <v>109.4303</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0059</v>
-      </c>
-      <c r="B37" s="0">
-        <v>104.0964</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0036</v>
-      </c>
-      <c r="B38" s="0">
-        <v>95.5246</v>
-      </c>
-    </row>
-    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -15214,120 +15126,120 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>3</v>
+      <c r="A1" s="0">
+        <v>38353</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9927</v>
+        <v>0.9909</v>
       </c>
       <c r="B3" s="0">
-        <v>313.1715</v>
+        <v>297.046</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9864</v>
+        <v>0.9881</v>
       </c>
       <c r="B4" s="0">
-        <v>310.5653</v>
+        <v>294.5692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9778</v>
+        <v>0.9779</v>
       </c>
       <c r="B5" s="0">
-        <v>308.1442</v>
+        <v>291.7102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9683</v>
+        <v>0.9681</v>
       </c>
       <c r="B6" s="0">
-        <v>306.8388</v>
+        <v>289.6131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9592</v>
+        <v>0.9584</v>
       </c>
       <c r="B7" s="0">
-        <v>304.6035</v>
+        <v>288.2779</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9483</v>
+        <v>0.9486</v>
       </c>
       <c r="B8" s="0">
-        <v>303.4836</v>
+        <v>286.3713</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9383</v>
+        <v>0.938</v>
       </c>
       <c r="B9" s="0">
-        <v>301.806</v>
+        <v>285.2264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9284</v>
+        <v>0.9273</v>
       </c>
       <c r="B10" s="0">
-        <v>301.2443</v>
+        <v>284.4624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9184</v>
+        <v>0.9175</v>
       </c>
       <c r="B11" s="0">
-        <v>300.1246</v>
+        <v>282.9368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9084</v>
+        <v>0.9078</v>
       </c>
       <c r="B12" s="0">
-        <v>299.377</v>
+        <v>282.173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8962</v>
+        <v>0.8948</v>
       </c>
       <c r="B13" s="0">
-        <v>298.6285</v>
+        <v>281.0277</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.8459</v>
+        <v>0.8456</v>
       </c>
       <c r="B14" s="0">
-        <v>295.2619</v>
+        <v>278.1611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7969</v>
+        <v>0.7959</v>
       </c>
       <c r="B15" s="0">
-        <v>291.71</v>
+        <v>274.9136</v>
       </c>
     </row>
     <row r="16">
@@ -15335,199 +15247,199 @@
         <v>0.7457</v>
       </c>
       <c r="B16" s="0">
-        <v>289.645</v>
+        <v>271.8564</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6967</v>
+        <v>0.6956</v>
       </c>
       <c r="B17" s="0">
-        <v>287.5809</v>
+        <v>268.9897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6464</v>
+        <v>0.6459</v>
       </c>
       <c r="B18" s="0">
-        <v>284.7724</v>
+        <v>267.4564</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5979</v>
+        <v>0.5966</v>
       </c>
       <c r="B19" s="0">
-        <v>282.3365</v>
+        <v>264.0185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5471</v>
+        <v>0.546</v>
       </c>
       <c r="B20" s="0">
-        <v>279.7138</v>
+        <v>262.1041</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4968</v>
+        <v>0.4963</v>
       </c>
       <c r="B21" s="0">
-        <v>277.8351</v>
+        <v>259.8089</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4474</v>
+        <v>0.4466</v>
       </c>
       <c r="B22" s="0">
-        <v>274.655</v>
+        <v>256.9423</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3985</v>
+        <v>0.397</v>
       </c>
       <c r="B23" s="0">
-        <v>272.2189</v>
+        <v>254.2662</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3527</v>
+        <v>0.3505</v>
       </c>
       <c r="B24" s="0">
-        <v>268.8541</v>
+        <v>251.4002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3128</v>
+        <v>0.3083</v>
       </c>
       <c r="B25" s="0">
-        <v>265.8634</v>
+        <v>247.9636</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2638</v>
+        <v>0.2586</v>
       </c>
       <c r="B26" s="0">
-        <v>261.5674</v>
+        <v>243.3827</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2094</v>
+        <v>0.2066</v>
       </c>
       <c r="B27" s="0">
-        <v>255.5956</v>
+        <v>238.2299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1519</v>
+        <v>0.1523</v>
       </c>
       <c r="B28" s="0">
-        <v>247.3906</v>
+        <v>230.9815</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1002</v>
+        <v>0.1003</v>
       </c>
       <c r="B29" s="0">
-        <v>237.328</v>
+        <v>222.4001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0888</v>
+        <v>0.0882</v>
       </c>
       <c r="B30" s="0">
-        <v>234.72</v>
+        <v>220.1121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0802</v>
+        <v>0.0789</v>
       </c>
       <c r="B31" s="0">
-        <v>232.6709</v>
+        <v>217.0627</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0716</v>
+        <v>0.0682</v>
       </c>
       <c r="B32" s="0">
-        <v>229.8779</v>
+        <v>214.0131</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0653</v>
+        <v>0.0594</v>
       </c>
       <c r="B33" s="0">
-        <v>226.7137</v>
+        <v>210.9638</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0576</v>
+        <v>0.0469</v>
       </c>
       <c r="B34" s="0">
-        <v>223.363</v>
+        <v>206.7709</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0476</v>
+        <v>0.0362</v>
       </c>
       <c r="B35" s="0">
-        <v>218.8956</v>
+        <v>202.1975</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0372</v>
+        <v>0.0279</v>
       </c>
       <c r="B36" s="0">
-        <v>213.498</v>
+        <v>196.6721</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0272</v>
+        <v>0.0195</v>
       </c>
       <c r="B37" s="0">
-        <v>206.7987</v>
+        <v>189.8133</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0195</v>
+        <v>0.0098</v>
       </c>
       <c r="B38" s="0">
-        <v>199.3563</v>
+        <v>178.1924</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0104</v>
+        <v>0.0075</v>
       </c>
       <c r="B39" s="0">
-        <v>191.3554</v>
+        <v>172.6682</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0068</v>
+        <v>0.0047</v>
       </c>
       <c r="B40" s="0">
-        <v>182.0546</v>
+        <v>166.1915</v>
       </c>
     </row>
     <row r="41"/>
@@ -15539,314 +15451,338 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
+      <c r="A1" s="0">
+        <v>45293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9937</v>
+        <v>0.994</v>
       </c>
       <c r="B3" s="0">
-        <v>340.1402</v>
+        <v>339.7132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9869</v>
+        <v>0.9866</v>
       </c>
       <c r="B4" s="0">
-        <v>337.5339</v>
+        <v>336.8547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9796</v>
+        <v>0.9768</v>
       </c>
       <c r="B5" s="0">
-        <v>334.5553</v>
+        <v>334.7576</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9674</v>
+        <v>0.9694</v>
       </c>
       <c r="B6" s="0">
-        <v>331.9469</v>
+        <v>331.3276</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9578</v>
+        <v>0.9583</v>
       </c>
       <c r="B7" s="0">
-        <v>330.4555</v>
+        <v>329.4207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9474</v>
+        <v>0.9485</v>
       </c>
       <c r="B8" s="0">
-        <v>329.1497</v>
+        <v>328.4665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9388</v>
+        <v>0.9397</v>
       </c>
       <c r="B9" s="0">
-        <v>328.0306</v>
+        <v>327.7029</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9284</v>
+        <v>0.929</v>
       </c>
       <c r="B10" s="0">
-        <v>326.7248</v>
+        <v>325.9866</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.918</v>
+        <v>0.9193</v>
       </c>
       <c r="B11" s="0">
-        <v>326.3489</v>
+        <v>325.4133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.908</v>
+        <v>0.9086</v>
       </c>
       <c r="B12" s="0">
-        <v>324.8573</v>
+        <v>324.4589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8948</v>
+        <v>0.8956</v>
       </c>
       <c r="B13" s="0">
-        <v>324.1084</v>
+        <v>323.3135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.8459</v>
+        <v>0.8464</v>
       </c>
       <c r="B14" s="0">
-        <v>319.9985</v>
+        <v>319.6851</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7969</v>
+        <v>0.7967</v>
       </c>
       <c r="B15" s="0">
-        <v>316.4465</v>
+        <v>315.8661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7461</v>
+        <v>0.747</v>
       </c>
       <c r="B16" s="0">
-        <v>313.4518</v>
+        <v>312.809</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6954</v>
+        <v>0.6968</v>
       </c>
       <c r="B17" s="0">
-        <v>311.015</v>
+        <v>309.9423</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6473</v>
+        <v>0.6471</v>
       </c>
       <c r="B18" s="0">
-        <v>308.2073</v>
+        <v>307.4567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5975</v>
+        <v>0.5974</v>
       </c>
       <c r="B19" s="0">
-        <v>305.9569</v>
+        <v>305.1615</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5471</v>
+        <v>0.5473</v>
       </c>
       <c r="B20" s="0">
-        <v>303.1483</v>
+        <v>302.1043</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4964</v>
+        <v>0.4962</v>
       </c>
       <c r="B21" s="0">
-        <v>299.7817</v>
+        <v>299.4279</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4465</v>
+        <v>0.4475</v>
       </c>
       <c r="B22" s="0">
-        <v>296.6013</v>
+        <v>295.9901</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4003</v>
+        <v>0.3996</v>
       </c>
       <c r="B23" s="0">
-        <v>294.5382</v>
+        <v>294.2667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3549</v>
+        <v>0.3532</v>
       </c>
       <c r="B24" s="0">
-        <v>290.9876</v>
+        <v>290.0674</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3114</v>
+        <v>0.3128</v>
       </c>
       <c r="B25" s="0">
-        <v>286.1357</v>
+        <v>286.6311</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2638</v>
+        <v>0.264</v>
       </c>
       <c r="B26" s="0">
-        <v>282.0262</v>
+        <v>281.479</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.209</v>
+        <v>0.2088</v>
       </c>
       <c r="B27" s="0">
-        <v>274.9382</v>
+        <v>274.4208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1505</v>
+        <v>0.1503</v>
       </c>
       <c r="B28" s="0">
-        <v>266.547</v>
+        <v>265.0763</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0997</v>
+        <v>0.1002</v>
       </c>
       <c r="B29" s="0">
-        <v>254.2528</v>
+        <v>254.4001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0875</v>
+        <v>0.0793</v>
       </c>
       <c r="B30" s="0">
-        <v>251.6444</v>
+        <v>248.4914</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0789</v>
+        <v>0.0658</v>
       </c>
       <c r="B31" s="0">
-        <v>249.0374</v>
+        <v>243.346</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0716</v>
+        <v>0.0561</v>
       </c>
       <c r="B32" s="0">
-        <v>246.0589</v>
+        <v>239.9155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0639</v>
+        <v>0.0454</v>
       </c>
       <c r="B33" s="0">
-        <v>243.0802</v>
+        <v>234.5802</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0526</v>
+        <v>0.0352</v>
       </c>
       <c r="B34" s="0">
-        <v>238.2403</v>
+        <v>227.3401</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.044</v>
+        <v>0.0273</v>
       </c>
       <c r="B35" s="0">
-        <v>234.1453</v>
+        <v>221.4339</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0326</v>
+        <v>0.0185</v>
       </c>
       <c r="B36" s="0">
-        <v>227.6315</v>
+        <v>213.6227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0227</v>
+        <v>0.0116</v>
       </c>
       <c r="B37" s="0">
-        <v>218.8863</v>
+        <v>204.8594</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0104</v>
+        <v>0.0093</v>
       </c>
       <c r="B38" s="0">
-        <v>204.5606</v>
-      </c>
-    </row>
-    <row r="39"/>
+        <v>200.0971</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0079</v>
+      </c>
+      <c r="B39" s="0">
+        <v>197.0492</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0061</v>
+      </c>
+      <c r="B40" s="0">
+        <v>192.6679</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0047</v>
+      </c>
+      <c r="B41" s="0">
+        <v>186.9534</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -15855,47 +15791,47 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
+      <c r="A1" s="0">
+        <v>38354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9932</v>
+        <v>0.9929</v>
       </c>
       <c r="B3" s="0">
-        <v>288.9931</v>
+        <v>258.5702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9882</v>
+        <v>0.9864</v>
       </c>
       <c r="B4" s="0">
-        <v>286.2014</v>
+        <v>256.6642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9787</v>
+        <v>0.9785</v>
       </c>
       <c r="B5" s="0">
-        <v>284.338</v>
+        <v>255.3293</v>
       </c>
     </row>
     <row r="6">
@@ -15903,135 +15839,135 @@
         <v>0.9696</v>
       </c>
       <c r="B6" s="0">
-        <v>281.9168</v>
+        <v>253.4229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9592</v>
+        <v>0.958</v>
       </c>
       <c r="B7" s="0">
-        <v>280.611</v>
+        <v>250.9445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9501</v>
+        <v>0.9478</v>
       </c>
       <c r="B8" s="0">
-        <v>279.1197</v>
+        <v>250.1806</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9406</v>
+        <v>0.9385</v>
       </c>
       <c r="B9" s="0">
-        <v>278.5582</v>
+        <v>248.8455</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9302</v>
+        <v>0.9293</v>
       </c>
       <c r="B10" s="0">
-        <v>277.2524</v>
+        <v>248.0819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9211</v>
+        <v>0.92</v>
       </c>
       <c r="B11" s="0">
-        <v>276.6911</v>
+        <v>247.6991</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9084</v>
+        <v>0.9079</v>
       </c>
       <c r="B12" s="0">
-        <v>275.3844</v>
+        <v>246.7444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8953</v>
+        <v>0.8958</v>
       </c>
       <c r="B13" s="0">
-        <v>273.8916</v>
+        <v>246.1707</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.8477</v>
+        <v>0.8457</v>
       </c>
       <c r="B14" s="0">
-        <v>270.8981</v>
+        <v>242.5421</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7965</v>
+        <v>0.7969</v>
       </c>
       <c r="B15" s="0">
-        <v>268.2752</v>
+        <v>239.4852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7475</v>
+        <v>0.7472</v>
       </c>
       <c r="B16" s="0">
-        <v>266.0251</v>
+        <v>238.1424</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6967</v>
+        <v>0.6961</v>
       </c>
       <c r="B17" s="0">
-        <v>263.4024</v>
+        <v>236.2279</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6473</v>
+        <v>0.646</v>
       </c>
       <c r="B18" s="0">
-        <v>261.5241</v>
+        <v>233.9327</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5979</v>
+        <v>0.5972</v>
       </c>
       <c r="B19" s="0">
-        <v>258.7159</v>
+        <v>231.6377</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5485</v>
+        <v>0.548</v>
       </c>
       <c r="B20" s="0">
-        <v>256.8376</v>
+        <v>229.533</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4982</v>
+        <v>0.4969</v>
       </c>
       <c r="B21" s="0">
-        <v>254.4011</v>
+        <v>226.6662</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4474</v>
+        <v>0.4481</v>
       </c>
       <c r="B22" s="0">
-        <v>251.5923</v>
+        <v>224.5616</v>
       </c>
     </row>
     <row r="23">
@@ -16039,154 +15975,170 @@
         <v>0.3994</v>
       </c>
       <c r="B23" s="0">
-        <v>249.5286</v>
+        <v>222.6476</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3554</v>
+        <v>0.3548</v>
       </c>
       <c r="B24" s="0">
-        <v>246.3504</v>
+        <v>220.5439</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3123</v>
+        <v>0.307</v>
       </c>
       <c r="B25" s="0">
-        <v>242.9866</v>
+        <v>216.3443</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2634</v>
+        <v>0.2596</v>
       </c>
       <c r="B26" s="0">
-        <v>238.5047</v>
+        <v>213.0972</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2081</v>
+        <v>0.2062</v>
       </c>
       <c r="B27" s="0">
-        <v>233.2764</v>
+        <v>208.1346</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1523</v>
+        <v>0.1528</v>
       </c>
       <c r="B28" s="0">
-        <v>225.6301</v>
+        <v>203.3625</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1006</v>
+        <v>0.1003</v>
       </c>
       <c r="B29" s="0">
-        <v>215.9395</v>
+        <v>194.2097</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0907</v>
+        <v>0.0892</v>
       </c>
       <c r="B30" s="0">
-        <v>214.2619</v>
+        <v>192.3028</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0807</v>
+        <v>0.079</v>
       </c>
       <c r="B31" s="0">
-        <v>212.0263</v>
+        <v>190.0151</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.068</v>
+        <v>0.0697</v>
       </c>
       <c r="B32" s="0">
-        <v>207.5578</v>
+        <v>188.8705</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.058</v>
+        <v>0.0618</v>
       </c>
       <c r="B33" s="0">
-        <v>204.0203</v>
+        <v>186.0119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0462</v>
+        <v>0.0516</v>
       </c>
       <c r="B34" s="0">
-        <v>200.2962</v>
+        <v>182.5813</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0372</v>
+        <v>0.0414</v>
       </c>
       <c r="B35" s="0">
-        <v>194.5272</v>
+        <v>180.1032</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0281</v>
+        <v>0.0326</v>
       </c>
       <c r="B36" s="0">
-        <v>188.2002</v>
+        <v>174.7682</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0195</v>
+        <v>0.027</v>
       </c>
       <c r="B37" s="0">
-        <v>180.5714</v>
+        <v>170.5767</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.01</v>
+        <v>0.0178</v>
       </c>
       <c r="B38" s="0">
-        <v>168.1066</v>
+        <v>164.2892</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0073</v>
+        <v>0.0108</v>
       </c>
       <c r="B39" s="0">
-        <v>162.5259</v>
+        <v>158.7641</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0054</v>
+        <v>0.009</v>
       </c>
       <c r="B40" s="0">
-        <v>157.6896</v>
+        <v>153.2399</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.0041</v>
+        <v>0.0067</v>
       </c>
       <c r="B41" s="0">
-        <v>150.0635</v>
-      </c>
-    </row>
-    <row r="42"/>
+        <v>149.2395</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0062</v>
+      </c>
+      <c r="B42" s="0">
+        <v>143.5251</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.003</v>
+      </c>
+      <c r="B43" s="0">
+        <v>136.8578</v>
+      </c>
+    </row>
+    <row r="44"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -16195,266 +16147,314 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
+      <c r="A1" s="0">
+        <v>45294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0174</v>
+        <v>0.9921</v>
       </c>
       <c r="B3" s="0">
-        <v>137.7102</v>
+        <v>188.8557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0326</v>
+        <v>0.9801</v>
       </c>
       <c r="B4" s="0">
-        <v>144.3079</v>
+        <v>186.5677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0429</v>
+        <v>0.9694</v>
       </c>
       <c r="B5" s="0">
-        <v>147.4127</v>
+        <v>184.8514</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0477</v>
+        <v>0.9596</v>
       </c>
       <c r="B6" s="0">
-        <v>149.7413</v>
+        <v>182.7543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.06</v>
+        <v>0.9494</v>
       </c>
       <c r="B7" s="0">
-        <v>152.458</v>
+        <v>181.419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0675</v>
+        <v>0.9388</v>
       </c>
       <c r="B8" s="0">
-        <v>154.3984</v>
+        <v>180.2741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0789</v>
+        <v>0.9299</v>
       </c>
       <c r="B9" s="0">
-        <v>156.3389</v>
+        <v>179.3201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0883</v>
+        <v>0.9206</v>
       </c>
       <c r="B10" s="0">
-        <v>157.8913</v>
+        <v>178.5564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0987</v>
+        <v>0.9114</v>
       </c>
       <c r="B11" s="0">
-        <v>159.8318</v>
+        <v>177.9832</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1517</v>
+        <v>0.8984</v>
       </c>
       <c r="B12" s="0">
-        <v>165.2652</v>
+        <v>177.4093</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2047</v>
+        <v>0.8463</v>
       </c>
       <c r="B13" s="0">
-        <v>170.3105</v>
+        <v>174.7327</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2577</v>
+        <v>0.798</v>
       </c>
       <c r="B14" s="0">
-        <v>174.1915</v>
+        <v>172.2473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4963</v>
+        <v>0.7488</v>
       </c>
       <c r="B15" s="0">
-        <v>185.8344</v>
+        <v>170.5237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5446</v>
+        <v>0.6968</v>
       </c>
       <c r="B16" s="0">
-        <v>188.163</v>
+        <v>167.8471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5967</v>
+        <v>0.6466</v>
       </c>
       <c r="B17" s="0">
-        <v>190.1035</v>
+        <v>166.3137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6459</v>
+        <v>0.5974</v>
       </c>
       <c r="B18" s="0">
-        <v>190.8797</v>
+        <v>164.7805</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6961</v>
+        <v>0.5491</v>
       </c>
       <c r="B19" s="0">
-        <v>192.8202</v>
+        <v>163.2475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.7462</v>
+        <v>0.498</v>
       </c>
       <c r="B20" s="0">
-        <v>195.1488</v>
+        <v>160.9521</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.7964</v>
+        <v>0.4502</v>
       </c>
       <c r="B21" s="0">
-        <v>197.0893</v>
+        <v>158.6573</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.8447</v>
+        <v>0.3986</v>
       </c>
       <c r="B22" s="0">
-        <v>199.4179</v>
+        <v>157.1236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.893</v>
+        <v>0.3541</v>
       </c>
       <c r="B23" s="0">
-        <v>201.3583</v>
+        <v>155.0199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9081</v>
+        <v>0.3058</v>
       </c>
       <c r="B24" s="0">
-        <v>202.1345</v>
+        <v>152.5345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9195</v>
+        <v>0.2551</v>
       </c>
       <c r="B25" s="0">
-        <v>203.2988</v>
+        <v>149.8582</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.929</v>
+        <v>0.2031</v>
       </c>
       <c r="B26" s="0">
-        <v>203.6869</v>
+        <v>145.8483</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9413</v>
+        <v>0.1432</v>
       </c>
       <c r="B27" s="0">
-        <v>204.8512</v>
+        <v>141.075</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9526</v>
+        <v>0.1015</v>
       </c>
       <c r="B28" s="0">
-        <v>206.0155</v>
+        <v>136.3051</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9678</v>
+        <v>0.0894</v>
       </c>
       <c r="B29" s="0">
-        <v>207.956</v>
+        <v>134.3981</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9782</v>
+        <v>0.0792</v>
       </c>
       <c r="B30" s="0">
-        <v>210.2846</v>
+        <v>133.4437</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9867</v>
+        <v>0.0703</v>
       </c>
       <c r="B31" s="0">
-        <v>212.6132</v>
+        <v>131.1563</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.3041</v>
+        <v>0.0597</v>
       </c>
       <c r="B32" s="0">
-        <v>176.9082</v>
-      </c>
-    </row>
-    <row r="33"/>
+        <v>129.6305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0462</v>
+      </c>
+      <c r="B33" s="0">
+        <v>125.8184</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0309</v>
+      </c>
+      <c r="B34" s="0">
+        <v>122.1964</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0184</v>
+      </c>
+      <c r="B35" s="0">
+        <v>115.5274</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0086</v>
+      </c>
+      <c r="B36" s="0">
+        <v>109.4303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0059</v>
+      </c>
+      <c r="B37" s="0">
+        <v>104.0964</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0036</v>
+      </c>
+      <c r="B38" s="0">
+        <v>95.5246</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
